--- a/Scenarios.xlsx
+++ b/Scenarios.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge\CodeBoxx\2 - ODYSSEY PROGRAM\Week1\Rocket_Elevators_Controllers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{494095B9-1B38-46E3-9C90-E6CEBCE99E34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A4DC023-5B44-4FDB-886B-2C46EA10E47D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13690" yWindow="0" windowWidth="8870" windowHeight="10540" xr2:uid="{FB0B7BA2-D83B-44F5-B2CA-CFE3C89769CA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" activeTab="1" xr2:uid="{FB0B7BA2-D83B-44F5-B2CA-CFE3C89769CA}"/>
   </bookViews>
   <sheets>
-    <sheet name="Residential Controller" sheetId="3" r:id="rId1"/>
-    <sheet name="Comercial Controller" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="5" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet3" sheetId="1" r:id="rId5"/>
+    <sheet name="Residential Controller (2)" sheetId="6" r:id="rId1"/>
+    <sheet name="Residential Controller" sheetId="3" r:id="rId2"/>
+    <sheet name="Comercial Controller" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="1" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="60">
   <si>
     <t>Floor 10</t>
   </si>
@@ -215,6 +216,9 @@
   <si>
     <t xml:space="preserve">Scenario  </t>
   </si>
+  <si>
+    <t>Elevator 1 @ Floor 7 and Idle</t>
+  </si>
 </sst>
 </file>
 
@@ -249,7 +253,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -316,8 +320,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -481,11 +491,91 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -601,20 +691,55 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -625,23 +750,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -658,17 +783,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -688,6 +804,3892 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>132188</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>130638</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>529429</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>111544</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Group 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E008464D-E484-4E21-9540-F59DD4B22B91}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2862688" y="505288"/>
+          <a:ext cx="397241" cy="5321256"/>
+          <a:chOff x="2418188" y="130638"/>
+          <a:chExt cx="397241" cy="5321256"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="3" name="Graphic 2" descr="Line arrow Straight">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF74192B-5B8C-44A4-B4AE-DA8B4DE2943B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm rot="5400000">
+            <a:off x="2498524" y="5288212"/>
+            <a:ext cx="163583" cy="163781"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="4" name="Graphic 3" descr="Line arrow Straight">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCD69444-856F-4CA3-998D-2C3308273F2A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm rot="16200000">
+            <a:off x="2540065" y="130787"/>
+            <a:ext cx="164079" cy="163781"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="5" name="Group 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E525190E-6F61-4FC7-9B95-16A6049045EB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="2418188" y="3018933"/>
+            <a:ext cx="397241" cy="1895943"/>
+            <a:chOff x="2418188" y="853583"/>
+            <a:chExt cx="397241" cy="1895943"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="15" name="Graphic 14" descr="Line arrow Straight">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{147826A1-DE5A-4B25-8F06-E3BEE307B38F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm rot="16200000">
+              <a:off x="2418084" y="1964937"/>
+              <a:ext cx="163990" cy="163781"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="16" name="Graphic 15" descr="Line arrow Straight">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9682E685-CBC2-41F7-AF14-5469CE7BA6DA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm rot="5400000">
+              <a:off x="2639047" y="1969894"/>
+              <a:ext cx="163583" cy="163781"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="17" name="Graphic 16" descr="Line arrow Straight">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BB16233-5122-4ADB-B7FA-007019B41411}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm rot="16200000">
+              <a:off x="2430784" y="2580887"/>
+              <a:ext cx="163990" cy="163781"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="18" name="Graphic 17" descr="Line arrow Straight">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C6E5AB4-7673-4570-BD12-6B8B783DAAA2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm rot="5400000">
+              <a:off x="2651747" y="2585844"/>
+              <a:ext cx="163583" cy="163781"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="19" name="Graphic 18" descr="Line arrow Straight">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{357E2A4D-FEBD-4443-B772-21CD9410246B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm rot="16200000">
+              <a:off x="2418084" y="853687"/>
+              <a:ext cx="163990" cy="163781"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="20" name="Graphic 19" descr="Line arrow Straight">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{105A43E1-E288-4672-B970-FAFFB960E075}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm rot="5400000">
+              <a:off x="2639047" y="858644"/>
+              <a:ext cx="163583" cy="163781"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="21" name="Graphic 20" descr="Line arrow Straight">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA04D2D1-1F55-4573-B1F8-1BB3DA94C08F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm rot="16200000">
+              <a:off x="2430784" y="1469637"/>
+              <a:ext cx="163990" cy="163781"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="22" name="Graphic 21" descr="Line arrow Straight">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B363030E-3738-42F8-AE5B-D547EACF38CF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm rot="5400000">
+              <a:off x="2651747" y="1474594"/>
+              <a:ext cx="163583" cy="163781"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="6" name="Group 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D2A0D01-E16D-48D0-B429-EA5E593B886D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="2418188" y="840883"/>
+            <a:ext cx="397241" cy="1895943"/>
+            <a:chOff x="2418188" y="853583"/>
+            <a:chExt cx="397241" cy="1895943"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="7" name="Graphic 6" descr="Line arrow Straight">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E90EEC5-701A-46F0-9954-B8DA7AA4E78B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm rot="16200000">
+              <a:off x="2418084" y="1964937"/>
+              <a:ext cx="163990" cy="163781"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="8" name="Graphic 7" descr="Line arrow Straight">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8163623-D22D-49DD-8629-F1A728060D68}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm rot="5400000">
+              <a:off x="2639047" y="1969894"/>
+              <a:ext cx="163583" cy="163781"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="9" name="Graphic 8" descr="Line arrow Straight">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F24ACD7-FE15-4914-A82E-53CA5D01980F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm rot="16200000">
+              <a:off x="2430784" y="2580887"/>
+              <a:ext cx="163990" cy="163781"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="10" name="Graphic 9" descr="Line arrow Straight">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8938FB53-9784-443A-9EBC-3637CC1F1CE8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm rot="5400000">
+              <a:off x="2651747" y="2585844"/>
+              <a:ext cx="163583" cy="163781"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="11" name="Graphic 10" descr="Line arrow Straight">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D367041-1D88-49C2-A32C-776188C28B81}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm rot="16200000">
+              <a:off x="2418084" y="853687"/>
+              <a:ext cx="163990" cy="163781"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="12" name="Graphic 11" descr="Line arrow Straight">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79574205-C2AE-40BA-85B0-C1691735EF4B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm rot="5400000">
+              <a:off x="2639047" y="858644"/>
+              <a:ext cx="163583" cy="163781"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="13" name="Graphic 12" descr="Line arrow Straight">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F326649-DC3B-4900-9EFA-16C6D3094B3E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm rot="16200000">
+              <a:off x="2430784" y="1469637"/>
+              <a:ext cx="163990" cy="163781"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="14" name="Graphic 13" descr="Line arrow Straight">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20ACA72A-1DEC-4748-8B57-842E6FAF369F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm rot="5400000">
+              <a:off x="2651747" y="1474594"/>
+              <a:ext cx="163583" cy="163781"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>132188</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>130637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>529429</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>111544</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="24" name="Group 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A82AE047-89D6-4A88-96E7-B3179E836189}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="17194638" y="505287"/>
+          <a:ext cx="397241" cy="5321257"/>
+          <a:chOff x="2418188" y="130637"/>
+          <a:chExt cx="397241" cy="5321257"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="25" name="Graphic 24" descr="Line arrow Straight">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{235D8C01-2EFE-4309-ABC6-443E21E1EE99}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm rot="5400000">
+            <a:off x="2498524" y="5288212"/>
+            <a:ext cx="163583" cy="163781"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="26" name="Graphic 25" descr="Line arrow Straight">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{879A0A22-A9DD-411A-90F7-84D8E4B0B63A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm rot="16200000">
+            <a:off x="2540065" y="130786"/>
+            <a:ext cx="164079" cy="163781"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="27" name="Group 26">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3024B85-1B8F-4274-9F03-54EEDCC9BF7D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="2418188" y="3018933"/>
+            <a:ext cx="397241" cy="1895943"/>
+            <a:chOff x="2418188" y="853583"/>
+            <a:chExt cx="397241" cy="1895943"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="37" name="Graphic 36" descr="Line arrow Straight">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5753A38C-B80F-4636-A98C-FF4EFCC9AD98}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm rot="16200000">
+              <a:off x="2418084" y="1964937"/>
+              <a:ext cx="163990" cy="163781"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="38" name="Graphic 37" descr="Line arrow Straight">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFBE2C69-F2FB-43B4-8A47-7489B1AA9BEC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm rot="5400000">
+              <a:off x="2639047" y="1969894"/>
+              <a:ext cx="163583" cy="163781"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="39" name="Graphic 38" descr="Line arrow Straight">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B678B13-4580-41FC-9743-591B29DF2F98}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm rot="16200000">
+              <a:off x="2430784" y="2580887"/>
+              <a:ext cx="163990" cy="163781"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="40" name="Graphic 39" descr="Line arrow Straight">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1BE68CD-AF01-46B5-9013-1F540ACACD07}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm rot="5400000">
+              <a:off x="2651747" y="2585844"/>
+              <a:ext cx="163583" cy="163781"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="41" name="Graphic 40" descr="Line arrow Straight">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AD512DC-1F7C-4618-855B-B91B6CBA427E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm rot="16200000">
+              <a:off x="2418084" y="853687"/>
+              <a:ext cx="163990" cy="163781"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="42" name="Graphic 41" descr="Line arrow Straight">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{027FE6F7-7A79-4692-893D-695146B91A3D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm rot="5400000">
+              <a:off x="2639047" y="858644"/>
+              <a:ext cx="163583" cy="163781"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="43" name="Graphic 42" descr="Line arrow Straight">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC51C6F9-5CEF-431C-94A5-30B4777C2463}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm rot="16200000">
+              <a:off x="2430784" y="1469637"/>
+              <a:ext cx="163990" cy="163781"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="44" name="Graphic 43" descr="Line arrow Straight">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9CA2344-BA30-435D-B7BD-B841B50CC27A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm rot="5400000">
+              <a:off x="2651747" y="1474594"/>
+              <a:ext cx="163583" cy="163781"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="28" name="Group 27">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D9B34F6-E576-4FAD-8DE2-816C48B61E72}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="2418188" y="840883"/>
+            <a:ext cx="397241" cy="1895943"/>
+            <a:chOff x="2418188" y="853583"/>
+            <a:chExt cx="397241" cy="1895943"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="29" name="Graphic 28" descr="Line arrow Straight">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DD5F122-FAC8-45D3-B1E6-0BC5B1115B71}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm rot="16200000">
+              <a:off x="2418084" y="1964937"/>
+              <a:ext cx="163990" cy="163781"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="30" name="Graphic 29" descr="Line arrow Straight">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4539512D-7A72-414B-9CC0-5A87B7F69555}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm rot="5400000">
+              <a:off x="2639047" y="1969894"/>
+              <a:ext cx="163583" cy="163781"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="31" name="Graphic 30" descr="Line arrow Straight">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0DE94F8-AEE4-4516-B299-94118842843E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm rot="16200000">
+              <a:off x="2430784" y="2580887"/>
+              <a:ext cx="163990" cy="163781"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="32" name="Graphic 31" descr="Line arrow Straight">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF6BC84E-43C5-4C5F-9AB0-9F2E7F26239A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm rot="5400000">
+              <a:off x="2651747" y="2585844"/>
+              <a:ext cx="163583" cy="163781"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="33" name="Graphic 32" descr="Line arrow Straight">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6BE148D-F89E-4C2E-9867-CD76F8C55701}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm rot="16200000">
+              <a:off x="2418084" y="853687"/>
+              <a:ext cx="163990" cy="163781"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="34" name="Graphic 33" descr="Line arrow Straight">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FFA663A-CD49-400C-97FF-6E8F9D805E1B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm rot="5400000">
+              <a:off x="2639047" y="858644"/>
+              <a:ext cx="163583" cy="163781"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="35" name="Graphic 34" descr="Line arrow Straight">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14AFAA05-CB9E-4DCD-B3C9-0B95C405FC07}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm rot="16200000">
+              <a:off x="2430784" y="1469637"/>
+              <a:ext cx="163990" cy="163781"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="36" name="Graphic 35" descr="Line arrow Straight">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47B5A4D7-9215-4EDC-9D3A-B02F542FD49E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm rot="5400000">
+              <a:off x="2651747" y="1474594"/>
+              <a:ext cx="163583" cy="163781"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>213895</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>6684</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="181442" cy="183330"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="Graphic 44" descr="Man">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE361B95-9AC0-4298-B7D8-DC10A7724984}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16292095" y="5531184"/>
+          <a:ext cx="181442" cy="183330"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>145844</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>123809</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>543085</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>104716</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="46" name="Group 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AABBBD6-1225-4AC7-B02B-32B97614BAD4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="23037594" y="498459"/>
+          <a:ext cx="397241" cy="5321257"/>
+          <a:chOff x="2418188" y="130637"/>
+          <a:chExt cx="397241" cy="5321257"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="47" name="Graphic 46" descr="Line arrow Straight">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33024E79-1B9D-40DF-82EC-49379501F4A3}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm rot="5400000">
+            <a:off x="2498524" y="5288212"/>
+            <a:ext cx="163583" cy="163781"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="48" name="Graphic 47" descr="Line arrow Straight">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14C3E78D-E8F7-49B8-913F-0BCF7446B02B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm rot="16200000">
+            <a:off x="2540065" y="130786"/>
+            <a:ext cx="164079" cy="163781"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="49" name="Group 48">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91272035-72E1-4F70-85CE-BCFF779F0C3E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="2418188" y="3018933"/>
+            <a:ext cx="397241" cy="1895943"/>
+            <a:chOff x="2418188" y="853583"/>
+            <a:chExt cx="397241" cy="1895943"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="59" name="Graphic 58" descr="Line arrow Straight">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1B05C50-3F70-4D51-B050-7B5FB97C5CD9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm rot="16200000">
+              <a:off x="2418084" y="1964937"/>
+              <a:ext cx="163990" cy="163781"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="60" name="Graphic 59" descr="Line arrow Straight">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AE0F7CD-EDBA-4123-B34A-5243EC2B9EB0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm rot="5400000">
+              <a:off x="2639047" y="1969894"/>
+              <a:ext cx="163583" cy="163781"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="61" name="Graphic 60" descr="Line arrow Straight">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD8C698C-D3D9-4EFA-80FA-096873686C49}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm rot="16200000">
+              <a:off x="2430784" y="2580887"/>
+              <a:ext cx="163990" cy="163781"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="62" name="Graphic 61" descr="Line arrow Straight">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5B33523-AFFF-45A7-A6D8-D12CA34509E2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm rot="5400000">
+              <a:off x="2651747" y="2585844"/>
+              <a:ext cx="163583" cy="163781"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="63" name="Graphic 62" descr="Line arrow Straight">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03827C18-574D-47B0-AFC2-D33F701D090B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm rot="16200000">
+              <a:off x="2418084" y="853687"/>
+              <a:ext cx="163990" cy="163781"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="64" name="Graphic 63" descr="Line arrow Straight">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19EC1F8D-D9F9-4AFC-ADC8-BC1684896B03}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm rot="5400000">
+              <a:off x="2639047" y="858644"/>
+              <a:ext cx="163583" cy="163781"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="65" name="Graphic 64" descr="Line arrow Straight">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{493065B0-48A0-48EC-AFC0-27B0C4AC2CEA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm rot="16200000">
+              <a:off x="2430784" y="1469637"/>
+              <a:ext cx="163990" cy="163781"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="66" name="Graphic 65" descr="Line arrow Straight">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04274E28-C4B6-47B1-A968-CE687259FD03}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm rot="5400000">
+              <a:off x="2651747" y="1474594"/>
+              <a:ext cx="163583" cy="163781"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="50" name="Group 49">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FF3A2BF-81B3-473F-89C7-F59E244167D0}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="2418188" y="840883"/>
+            <a:ext cx="397241" cy="1895943"/>
+            <a:chOff x="2418188" y="853583"/>
+            <a:chExt cx="397241" cy="1895943"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="51" name="Graphic 50" descr="Line arrow Straight">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48181E68-4568-480D-9EBF-04A43EC7DD71}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm rot="16200000">
+              <a:off x="2418084" y="1964937"/>
+              <a:ext cx="163990" cy="163781"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="52" name="Graphic 51" descr="Line arrow Straight">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1119409-3152-4784-A0A1-299AB4EEB3E1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm rot="5400000">
+              <a:off x="2639047" y="1969894"/>
+              <a:ext cx="163583" cy="163781"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="53" name="Graphic 52" descr="Line arrow Straight">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9AB4FA7-C155-4442-AE0E-03B5899F33D3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm rot="16200000">
+              <a:off x="2430784" y="2580887"/>
+              <a:ext cx="163990" cy="163781"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="54" name="Graphic 53" descr="Line arrow Straight">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E384233-2727-4DD4-977B-3369307509DF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm rot="5400000">
+              <a:off x="2651747" y="2585844"/>
+              <a:ext cx="163583" cy="163781"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="55" name="Graphic 54" descr="Line arrow Straight">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDDB8078-88B3-476F-AFAD-E7B4B040C7EC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm rot="16200000">
+              <a:off x="2418084" y="853687"/>
+              <a:ext cx="163990" cy="163781"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="56" name="Graphic 55" descr="Line arrow Straight">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46E974A9-7648-438D-ACA5-DA1BB7BC79A4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm rot="5400000">
+              <a:off x="2639047" y="858644"/>
+              <a:ext cx="163583" cy="163781"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="57" name="Graphic 56" descr="Line arrow Straight">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02EDF96A-DF11-4AFE-A2CD-22342C778539}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm rot="16200000">
+              <a:off x="2430784" y="1469637"/>
+              <a:ext cx="163990" cy="163781"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="58" name="Graphic 57" descr="Line arrow Straight">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27964AC6-CB9D-42D5-B33A-20DC587542A5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm rot="5400000">
+              <a:off x="2651747" y="1474594"/>
+              <a:ext cx="163583" cy="163781"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>247316</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="181442" cy="183330"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="67" name="Graphic 66" descr="Man">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA39C490-ECF0-472A-B714-96991FDF6B82}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22154816" y="4419601"/>
+          <a:ext cx="181442" cy="183330"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>219243</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>5348</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="181442" cy="183330"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="68" name="Graphic 67" descr="Man">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{287D953B-59D9-406F-AED8-56D978ADA4A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22126743" y="1110248"/>
+          <a:ext cx="181442" cy="183330"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>139016</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>130637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>536257</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>111544</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="69" name="Group 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26901C84-7AE0-48A9-A1DD-6139D7FD98A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="28841016" y="505287"/>
+          <a:ext cx="397241" cy="5321257"/>
+          <a:chOff x="2418188" y="130637"/>
+          <a:chExt cx="397241" cy="5321257"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="70" name="Graphic 69" descr="Line arrow Straight">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9E15916-CC3B-4FBB-BC0A-2C7FAF06D3DD}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm rot="5400000">
+            <a:off x="2498524" y="5288212"/>
+            <a:ext cx="163583" cy="163781"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="71" name="Graphic 70" descr="Line arrow Straight">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF2A2156-7E6E-4155-A3B6-DCDC7CD9E87A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm rot="16200000">
+            <a:off x="2540065" y="130786"/>
+            <a:ext cx="164079" cy="163781"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="72" name="Group 71">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F1CF947-6891-405E-820B-8BBD34D63590}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="2418188" y="3018933"/>
+            <a:ext cx="397241" cy="1895943"/>
+            <a:chOff x="2418188" y="853583"/>
+            <a:chExt cx="397241" cy="1895943"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="82" name="Graphic 81" descr="Line arrow Straight">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECDA9627-53B3-43F8-AB90-29376DC5C8B1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm rot="16200000">
+              <a:off x="2418084" y="1964937"/>
+              <a:ext cx="163990" cy="163781"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="83" name="Graphic 82" descr="Line arrow Straight">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEE67CB4-6104-4D3F-B1DB-8273493BE520}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm rot="5400000">
+              <a:off x="2639047" y="1969894"/>
+              <a:ext cx="163583" cy="163781"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="84" name="Graphic 83" descr="Line arrow Straight">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A29981F5-2EBA-4977-97DC-A0B74D29BB2E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm rot="16200000">
+              <a:off x="2430784" y="2580887"/>
+              <a:ext cx="163990" cy="163781"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="85" name="Graphic 84" descr="Line arrow Straight">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{595EAAD5-0622-47D5-8AEB-24EA259C6B00}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm rot="5400000">
+              <a:off x="2651747" y="2585844"/>
+              <a:ext cx="163583" cy="163781"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="86" name="Graphic 85" descr="Line arrow Straight">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93DA39D8-1023-4C7C-B6A2-08CBF052318A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm rot="16200000">
+              <a:off x="2418084" y="853687"/>
+              <a:ext cx="163990" cy="163781"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="87" name="Graphic 86" descr="Line arrow Straight">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBDD0C27-791E-40C4-8DEB-0476CC4131C8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm rot="5400000">
+              <a:off x="2639047" y="858644"/>
+              <a:ext cx="163583" cy="163781"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="88" name="Graphic 87" descr="Line arrow Straight">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{468208C1-DABA-48F3-9D02-B2DF05B482EF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm rot="16200000">
+              <a:off x="2430784" y="1469637"/>
+              <a:ext cx="163990" cy="163781"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="89" name="Graphic 88" descr="Line arrow Straight">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D10D5D4-6FE4-4668-B1D0-92F0A16F1BD3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm rot="5400000">
+              <a:off x="2651747" y="1474594"/>
+              <a:ext cx="163583" cy="163781"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="73" name="Group 72">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A415241A-FC5D-4B44-8FB4-9377E6A06293}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="2418188" y="840883"/>
+            <a:ext cx="397241" cy="1895943"/>
+            <a:chOff x="2418188" y="853583"/>
+            <a:chExt cx="397241" cy="1895943"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="74" name="Graphic 73" descr="Line arrow Straight">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B006996-AA86-48ED-8538-0D1E2971704E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm rot="16200000">
+              <a:off x="2418084" y="1964937"/>
+              <a:ext cx="163990" cy="163781"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="75" name="Graphic 74" descr="Line arrow Straight">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B73F5A8-3880-4373-8DF7-3F152277C404}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm rot="5400000">
+              <a:off x="2639047" y="1969894"/>
+              <a:ext cx="163583" cy="163781"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="76" name="Graphic 75" descr="Line arrow Straight">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{140CBC90-0DDC-4F36-BE07-2F201C8989FB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm rot="16200000">
+              <a:off x="2430784" y="2580887"/>
+              <a:ext cx="163990" cy="163781"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="77" name="Graphic 76" descr="Line arrow Straight">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0936811-FCBD-4FC4-BC36-1239DAAECDF7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm rot="5400000">
+              <a:off x="2651747" y="2585844"/>
+              <a:ext cx="163583" cy="163781"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="78" name="Graphic 77" descr="Line arrow Straight">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA35436E-F400-4682-B6D6-E4CE6C08BC10}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm rot="16200000">
+              <a:off x="2418084" y="853687"/>
+              <a:ext cx="163990" cy="163781"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="79" name="Graphic 78" descr="Line arrow Straight">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A8843C6-62FF-43CB-B89E-F05AF32ABA5D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm rot="5400000">
+              <a:off x="2639047" y="858644"/>
+              <a:ext cx="163583" cy="163781"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="80" name="Graphic 79" descr="Line arrow Straight">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB19A1B4-22EE-4319-8C54-8F23998C3A3E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm rot="16200000">
+              <a:off x="2430784" y="1469637"/>
+              <a:ext cx="163990" cy="163781"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="81" name="Graphic 80" descr="Line arrow Straight">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D75CFA00-0352-4CBD-A2A9-0916B6B6D65E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm rot="5400000">
+              <a:off x="2651747" y="1474594"/>
+              <a:ext cx="163583" cy="163781"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>107737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>13587</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>123367</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="90" name="Graphic 89" descr="Line arrow Counter clockwise curve">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E03D36CA-0C17-424D-8817-DEB40608A134}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="11312937">
+          <a:off x="25431750" y="1028487"/>
+          <a:ext cx="3741037" cy="4066931"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="44450" dist="27940" dir="5400000" algn="ctr">
+            <a:srgbClr val="000000">
+              <a:alpha val="32000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="isometricOffAxis1Left"/>
+          <a:lightRig rig="balanced" dir="t">
+            <a:rot lat="0" lon="0" rev="8700000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="190500" h="38100"/>
+        </a:sp3d>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>29029</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>18334</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="162313" cy="166021"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="92" name="Graphic 91" descr="Man">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29F7930D-4D14-4C0D-B208-A49143D2BE48}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18158279" y="5174534"/>
+          <a:ext cx="162313" cy="166021"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>20913</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>10033</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="178544" cy="182623"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="93" name="Graphic 92" descr="Man">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10916B78-FE0A-4333-AA86-6FC59F48ABE1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18150163" y="5166233"/>
+          <a:ext cx="178544" cy="182623"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>349948</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>135724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>218589</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>1174</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="94" name="Graphic 93" descr="Line arrow Counter clockwise curve">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA08B929-F08F-4D2D-8E33-E032F9566345}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="1172173">
+          <a:off x="22257448" y="2897974"/>
+          <a:ext cx="2783292" cy="2443550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>29029</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>18334</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="162313" cy="166021"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="95" name="Graphic 94" descr="Man">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C2C24E8-4309-474B-BF59-EDF224976478}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23987579" y="5174534"/>
+          <a:ext cx="162313" cy="166021"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>20913</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>10033</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="178544" cy="182623"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="96" name="Graphic 95" descr="Man">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{285E7129-9153-4F5D-848E-0A236BAD82E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23979463" y="5166233"/>
+          <a:ext cx="178544" cy="182623"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>20913</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>10033</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="178544" cy="182623"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="97" name="Graphic 96" descr="Man">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2329E43-9FBA-4B21-B17B-AA7927E1AE5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23979463" y="5166233"/>
+          <a:ext cx="178544" cy="182623"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>218494</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>177528</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="181442" cy="183330"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="98" name="Graphic 97" descr="Man">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2722DA56-B194-4D0A-A3F3-BDCCC11440EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27936244" y="1098278"/>
+          <a:ext cx="181442" cy="183330"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>222046</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>179209</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="181442" cy="183330"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="99" name="Graphic 98" descr="Man">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46E9BD87-E895-452B-B010-98A8B22F27B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27939796" y="4414659"/>
+          <a:ext cx="181442" cy="183330"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>29029</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>18334</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="162313" cy="166021"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="100" name="Graphic 99" descr="Man">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1A562E2-2F73-4BDC-B54B-4EF25882967C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="29797829" y="5174534"/>
+          <a:ext cx="162313" cy="166021"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>20913</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>10033</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="178544" cy="182623"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="101" name="Graphic 100" descr="Man">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDB83830-9E4B-43A2-A0C3-7B549F08F42F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="29789713" y="5166233"/>
+          <a:ext cx="178544" cy="182623"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>20913</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>10033</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="178544" cy="182623"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="102" name="Graphic 101" descr="Man">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59704F01-8C52-470E-B554-B72446F5D817}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="29789713" y="5166233"/>
+          <a:ext cx="178544" cy="182623"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>20913</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>10033</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="178544" cy="182623"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="103" name="Graphic 102" descr="Man">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3CA810D-A1CF-42A0-A41E-E4503DCE97D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="29789713" y="5166233"/>
+          <a:ext cx="178544" cy="182623"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>20913</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>10033</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="178544" cy="182623"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="104" name="Graphic 103" descr="Man">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D179B3C0-4228-46B7-A621-412A26E35EBA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="29789713" y="5166233"/>
+          <a:ext cx="178544" cy="182623"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -715,8 +4717,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1963483" y="130637"/>
-          <a:ext cx="397241" cy="5242336"/>
+          <a:off x="1971498" y="130637"/>
+          <a:ext cx="397241" cy="5378407"/>
           <a:chOff x="2418188" y="130637"/>
           <a:chExt cx="397241" cy="5321257"/>
         </a:xfrm>
@@ -1503,13 +5505,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>132188</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>130637</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>529429</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>111544</xdr:rowOff>
@@ -1527,8 +5529,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="16262322" y="130637"/>
-          <a:ext cx="397241" cy="5242336"/>
+          <a:off x="8299602" y="130637"/>
+          <a:ext cx="397241" cy="5378407"/>
           <a:chOff x="2418188" y="130637"/>
           <a:chExt cx="397241" cy="5321257"/>
         </a:xfrm>
@@ -2262,7 +6264,7 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>213895</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>6684</xdr:rowOff>
@@ -2310,13 +6312,13 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>41</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>145844</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>123809</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>41</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>543085</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>104716</xdr:rowOff>
@@ -2334,8 +6336,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="22121380" y="123809"/>
-          <a:ext cx="397241" cy="5242336"/>
+          <a:off x="14159637" y="123809"/>
+          <a:ext cx="397241" cy="5378407"/>
           <a:chOff x="2418188" y="130637"/>
           <a:chExt cx="397241" cy="5321257"/>
         </a:xfrm>
@@ -3069,7 +7071,7 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>41</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>247316</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
@@ -3117,7 +7119,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>41</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>219243</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>5348</xdr:rowOff>
@@ -3165,13 +7167,13 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>52</xdr:col>
+      <xdr:col>39</xdr:col>
       <xdr:colOff>139016</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>130637</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>52</xdr:col>
+      <xdr:col>39</xdr:col>
       <xdr:colOff>536257</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>111544</xdr:rowOff>
@@ -3189,8 +7191,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="27942945" y="130637"/>
-          <a:ext cx="397241" cy="5242336"/>
+          <a:off x="19977292" y="130637"/>
+          <a:ext cx="397241" cy="5378407"/>
           <a:chOff x="2418188" y="130637"/>
           <a:chExt cx="397241" cy="5321257"/>
         </a:xfrm>
@@ -3924,13 +7926,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>48</xdr:col>
+      <xdr:col>35</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>107737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>55</xdr:col>
+      <xdr:col>42</xdr:col>
       <xdr:colOff>13587</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>123368</xdr:rowOff>
@@ -4049,7 +8051,7 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>34</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>29029</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>18334</xdr:rowOff>
@@ -4097,7 +8099,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>34</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>20913</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>10033</xdr:rowOff>
@@ -4145,13 +8147,13 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>41</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>349948</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>135724</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>47</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>218590</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>1174</xdr:rowOff>
@@ -4198,7 +8200,7 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>45</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>29029</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>18334</xdr:rowOff>
@@ -4246,7 +8248,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>45</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>20913</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>10033</xdr:rowOff>
@@ -4294,7 +8296,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>45</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>20913</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>10033</xdr:rowOff>
@@ -4342,7 +8344,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>52</xdr:col>
+      <xdr:col>39</xdr:col>
       <xdr:colOff>218494</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>177528</xdr:rowOff>
@@ -4390,7 +8392,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>52</xdr:col>
+      <xdr:col>39</xdr:col>
       <xdr:colOff>222046</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>179209</xdr:rowOff>
@@ -4438,7 +8440,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>56</xdr:col>
+      <xdr:col>43</xdr:col>
       <xdr:colOff>29029</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>18334</xdr:rowOff>
@@ -4486,7 +8488,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>56</xdr:col>
+      <xdr:col>43</xdr:col>
       <xdr:colOff>20913</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>10033</xdr:rowOff>
@@ -4534,7 +8536,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>56</xdr:col>
+      <xdr:col>43</xdr:col>
       <xdr:colOff>20913</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>10033</xdr:rowOff>
@@ -4582,7 +8584,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>56</xdr:col>
+      <xdr:col>43</xdr:col>
       <xdr:colOff>20913</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>10033</xdr:rowOff>
@@ -4630,7 +8632,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>56</xdr:col>
+      <xdr:col>43</xdr:col>
       <xdr:colOff>20913</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>10033</xdr:rowOff>
@@ -4732,7 +8734,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -4977,7 +8979,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -10150,11 +14152,1125 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47066FDE-6DA9-4E82-9AD4-B87BD64A92D0}">
+  <dimension ref="C2:BI38"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="4.1796875" customWidth="1"/>
+    <col min="4" max="4" width="7.453125" customWidth="1"/>
+    <col min="5" max="5" width="6.81640625" customWidth="1"/>
+    <col min="6" max="6" width="3.1796875" customWidth="1"/>
+    <col min="8" max="8" width="3.1796875" customWidth="1"/>
+    <col min="9" max="9" width="6.08984375" customWidth="1"/>
+    <col min="10" max="10" width="4.1796875" customWidth="1"/>
+    <col min="11" max="11" width="4.453125" customWidth="1"/>
+    <col min="12" max="12" width="3.7265625" customWidth="1"/>
+    <col min="13" max="13" width="11.1796875" customWidth="1"/>
+    <col min="31" max="31" width="12.08984375" customWidth="1"/>
+    <col min="32" max="32" width="3.1796875" style="51" customWidth="1"/>
+    <col min="33" max="33" width="8.7265625" style="51"/>
+    <col min="34" max="34" width="3.1796875" style="51" customWidth="1"/>
+    <col min="37" max="37" width="3.90625" customWidth="1"/>
+    <col min="42" max="42" width="12.08984375" customWidth="1"/>
+    <col min="43" max="43" width="3.1796875" customWidth="1"/>
+    <col min="45" max="45" width="3.1796875" customWidth="1"/>
+    <col min="48" max="48" width="3.6328125" customWidth="1"/>
+    <col min="53" max="53" width="12.08984375" customWidth="1"/>
+    <col min="54" max="54" width="3.1796875" customWidth="1"/>
+    <col min="56" max="56" width="3.1796875" customWidth="1"/>
+    <col min="59" max="59" width="3.81640625" customWidth="1"/>
+    <col min="61" max="61" width="6.453125" customWidth="1"/>
+    <col min="63" max="63" width="3.1796875" customWidth="1"/>
+    <col min="68" max="68" width="3.1796875" customWidth="1"/>
+    <col min="70" max="70" width="3.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:57" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="3:57" x14ac:dyDescent="0.35">
+      <c r="C3" s="56"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="58"/>
+      <c r="AF3"/>
+      <c r="AG3"/>
+      <c r="AH3"/>
+    </row>
+    <row r="4" spans="3:57" x14ac:dyDescent="0.35">
+      <c r="C4" s="59"/>
+      <c r="D4" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="60"/>
+      <c r="AD4" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF4"/>
+      <c r="AG4"/>
+      <c r="AH4"/>
+      <c r="AO4" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ4" s="70" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="3:57" x14ac:dyDescent="0.35">
+      <c r="C5" s="59"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="60"/>
+      <c r="AD5" s="71"/>
+      <c r="AF5"/>
+      <c r="AG5"/>
+      <c r="AH5"/>
+      <c r="AO5" s="71"/>
+      <c r="AZ5" s="71"/>
+      <c r="BB5" s="39"/>
+    </row>
+    <row r="6" spans="3:57" x14ac:dyDescent="0.35">
+      <c r="C6" s="59"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="60"/>
+      <c r="W6" s="42"/>
+      <c r="X6" s="42"/>
+      <c r="Y6" s="42"/>
+      <c r="Z6" s="42"/>
+      <c r="AA6" s="42"/>
+      <c r="AB6" s="42"/>
+      <c r="AD6" s="72"/>
+      <c r="AE6" s="2"/>
+      <c r="AF6" s="5"/>
+      <c r="AG6" s="3"/>
+      <c r="AH6" s="1"/>
+      <c r="AI6" s="2"/>
+      <c r="AJ6" s="42"/>
+      <c r="AK6" s="42"/>
+      <c r="AL6" s="42"/>
+      <c r="AM6" s="42"/>
+      <c r="AO6" s="72"/>
+      <c r="AP6" s="2"/>
+      <c r="AQ6" s="5"/>
+      <c r="AR6" s="3"/>
+      <c r="AS6" s="1"/>
+      <c r="AT6" s="2"/>
+      <c r="AZ6" s="72"/>
+      <c r="BA6" s="2"/>
+      <c r="BB6" s="5"/>
+      <c r="BC6" s="3"/>
+      <c r="BD6" s="1"/>
+      <c r="BE6" s="2"/>
+    </row>
+    <row r="7" spans="3:57" x14ac:dyDescent="0.35">
+      <c r="C7" s="59"/>
+      <c r="D7" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="60"/>
+      <c r="AD7" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF7"/>
+      <c r="AG7"/>
+      <c r="AH7"/>
+      <c r="AO7" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ7" s="70" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="3:57" x14ac:dyDescent="0.35">
+      <c r="C8" s="59"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="60"/>
+      <c r="AD8" s="71"/>
+      <c r="AF8"/>
+      <c r="AG8"/>
+      <c r="AH8"/>
+      <c r="AO8" s="71"/>
+      <c r="AZ8" s="71"/>
+    </row>
+    <row r="9" spans="3:57" x14ac:dyDescent="0.35">
+      <c r="C9" s="59"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="60"/>
+      <c r="W9" s="42"/>
+      <c r="X9" s="42"/>
+      <c r="Y9" s="42"/>
+      <c r="Z9" s="42"/>
+      <c r="AA9" s="42"/>
+      <c r="AB9" s="42"/>
+      <c r="AD9" s="72"/>
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="1"/>
+      <c r="AG9" s="3"/>
+      <c r="AH9" s="1"/>
+      <c r="AI9" s="2"/>
+      <c r="AJ9" s="42"/>
+      <c r="AK9" s="42"/>
+      <c r="AL9" s="42"/>
+      <c r="AM9" s="42"/>
+      <c r="AO9" s="72"/>
+      <c r="AP9" s="2"/>
+      <c r="AQ9" s="1"/>
+      <c r="AR9" s="3"/>
+      <c r="AS9" s="1"/>
+      <c r="AT9" s="2"/>
+      <c r="AZ9" s="72"/>
+      <c r="BA9" s="2"/>
+      <c r="BB9" s="1"/>
+      <c r="BC9" s="3"/>
+      <c r="BD9" s="1"/>
+      <c r="BE9" s="2"/>
+    </row>
+    <row r="10" spans="3:57" x14ac:dyDescent="0.35">
+      <c r="C10" s="59"/>
+      <c r="D10" s="70" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="60"/>
+      <c r="AD10" s="70" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF10"/>
+      <c r="AG10"/>
+      <c r="AH10"/>
+      <c r="AO10" s="70" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ10" s="70" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="3:57" x14ac:dyDescent="0.35">
+      <c r="C11" s="59"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="60"/>
+      <c r="AD11" s="71"/>
+      <c r="AF11"/>
+      <c r="AG11"/>
+      <c r="AH11"/>
+      <c r="AO11" s="71"/>
+      <c r="AZ11" s="71"/>
+    </row>
+    <row r="12" spans="3:57" x14ac:dyDescent="0.35">
+      <c r="C12" s="59"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="60"/>
+      <c r="W12" s="42"/>
+      <c r="X12" s="42"/>
+      <c r="Y12" s="42"/>
+      <c r="Z12" s="42"/>
+      <c r="AA12" s="42"/>
+      <c r="AB12" s="42"/>
+      <c r="AD12" s="72"/>
+      <c r="AE12" s="2"/>
+      <c r="AF12" s="1"/>
+      <c r="AG12" s="3"/>
+      <c r="AH12" s="1"/>
+      <c r="AI12" s="2"/>
+      <c r="AJ12" s="42"/>
+      <c r="AK12" s="42"/>
+      <c r="AL12" s="42"/>
+      <c r="AM12" s="42"/>
+      <c r="AO12" s="72"/>
+      <c r="AP12" s="2"/>
+      <c r="AQ12" s="1"/>
+      <c r="AR12" s="3"/>
+      <c r="AS12" s="1"/>
+      <c r="AT12" s="2"/>
+      <c r="AZ12" s="72"/>
+      <c r="BA12" s="2"/>
+      <c r="BB12" s="1"/>
+      <c r="BC12" s="3"/>
+      <c r="BD12" s="1"/>
+      <c r="BE12" s="2"/>
+    </row>
+    <row r="13" spans="3:57" x14ac:dyDescent="0.35">
+      <c r="C13" s="59"/>
+      <c r="D13" s="70" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="60"/>
+      <c r="AD13" s="70" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF13"/>
+      <c r="AG13"/>
+      <c r="AH13"/>
+      <c r="AO13" s="70" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ13" s="70" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="3:57" x14ac:dyDescent="0.35">
+      <c r="C14" s="59"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="60"/>
+      <c r="AD14" s="71"/>
+      <c r="AF14"/>
+      <c r="AG14"/>
+      <c r="AH14"/>
+      <c r="AO14" s="71"/>
+      <c r="AZ14" s="71"/>
+    </row>
+    <row r="15" spans="3:57" x14ac:dyDescent="0.35">
+      <c r="C15" s="59"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="64">
+        <v>7</v>
+      </c>
+      <c r="W15" s="42"/>
+      <c r="X15" s="42"/>
+      <c r="Y15" s="42"/>
+      <c r="Z15" s="42"/>
+      <c r="AA15" s="42"/>
+      <c r="AB15" s="42"/>
+      <c r="AD15" s="72"/>
+      <c r="AE15" s="2"/>
+      <c r="AF15" s="1"/>
+      <c r="AG15" s="3"/>
+      <c r="AH15" s="1"/>
+      <c r="AI15" s="2"/>
+      <c r="AJ15" s="42"/>
+      <c r="AK15" s="42"/>
+      <c r="AL15" s="42"/>
+      <c r="AM15" s="42"/>
+      <c r="AO15" s="72"/>
+      <c r="AP15" s="2"/>
+      <c r="AQ15" s="1"/>
+      <c r="AR15" s="3"/>
+      <c r="AS15" s="1"/>
+      <c r="AT15" s="2"/>
+      <c r="AZ15" s="72"/>
+      <c r="BA15" s="2"/>
+      <c r="BB15" s="1"/>
+      <c r="BC15" s="3"/>
+      <c r="BD15" s="1"/>
+      <c r="BE15" s="2"/>
+    </row>
+    <row r="16" spans="3:57" x14ac:dyDescent="0.35">
+      <c r="C16" s="59"/>
+      <c r="D16" s="70" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="60"/>
+      <c r="AD16" s="70" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF16"/>
+      <c r="AG16"/>
+      <c r="AH16"/>
+      <c r="AO16" s="70" t="s">
+        <v>4</v>
+      </c>
+      <c r="AZ16" s="70" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="3:61" x14ac:dyDescent="0.35">
+      <c r="C17" s="59"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="60"/>
+      <c r="AD17" s="71"/>
+      <c r="AF17"/>
+      <c r="AG17"/>
+      <c r="AH17"/>
+      <c r="AO17" s="71"/>
+      <c r="AS17" s="39"/>
+      <c r="AZ17" s="71"/>
+      <c r="BF17" s="49">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="3:61" x14ac:dyDescent="0.35">
+      <c r="C18" s="59"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="60"/>
+      <c r="W18" s="42"/>
+      <c r="X18" s="42"/>
+      <c r="Y18" s="42"/>
+      <c r="Z18" s="42"/>
+      <c r="AA18" s="42"/>
+      <c r="AB18" s="42"/>
+      <c r="AD18" s="72"/>
+      <c r="AE18" s="2"/>
+      <c r="AF18" s="1"/>
+      <c r="AG18" s="3"/>
+      <c r="AI18" s="2"/>
+      <c r="AJ18" s="42"/>
+      <c r="AK18" s="42"/>
+      <c r="AL18" s="42"/>
+      <c r="AM18" s="42"/>
+      <c r="AO18" s="72"/>
+      <c r="AP18" s="2"/>
+      <c r="AQ18" s="1"/>
+      <c r="AR18" s="3"/>
+      <c r="AS18" s="5"/>
+      <c r="AT18" s="2"/>
+      <c r="AU18" s="49">
+        <v>6</v>
+      </c>
+      <c r="AV18" s="49"/>
+      <c r="AW18" s="49"/>
+      <c r="AX18" s="49"/>
+      <c r="AY18" s="49"/>
+      <c r="AZ18" s="72"/>
+      <c r="BA18" s="2"/>
+      <c r="BB18" s="1"/>
+      <c r="BC18" s="3"/>
+      <c r="BD18" s="40"/>
+      <c r="BE18" s="2"/>
+    </row>
+    <row r="19" spans="3:61" x14ac:dyDescent="0.35">
+      <c r="C19" s="59"/>
+      <c r="D19" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="60"/>
+      <c r="AD19" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF19"/>
+      <c r="AG19"/>
+      <c r="AH19"/>
+      <c r="AO19" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="AZ19" s="70" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="3:61" x14ac:dyDescent="0.35">
+      <c r="C20" s="59"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="60"/>
+      <c r="AD20" s="71"/>
+      <c r="AF20"/>
+      <c r="AG20"/>
+      <c r="AH20"/>
+      <c r="AO20" s="71"/>
+      <c r="AZ20" s="71"/>
+    </row>
+    <row r="21" spans="3:61" x14ac:dyDescent="0.35">
+      <c r="C21" s="59"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="60"/>
+      <c r="W21" s="42"/>
+      <c r="X21" s="42"/>
+      <c r="Y21" s="42"/>
+      <c r="Z21" s="42"/>
+      <c r="AA21" s="42"/>
+      <c r="AB21" s="42"/>
+      <c r="AD21" s="72"/>
+      <c r="AE21" s="2"/>
+      <c r="AF21" s="1"/>
+      <c r="AG21" s="3"/>
+      <c r="AH21" s="1"/>
+      <c r="AI21" s="2"/>
+      <c r="AJ21" s="42"/>
+      <c r="AK21" s="42"/>
+      <c r="AL21" s="42"/>
+      <c r="AM21" s="42"/>
+      <c r="AO21" s="72"/>
+      <c r="AP21" s="2"/>
+      <c r="AQ21" s="1"/>
+      <c r="AR21" s="3"/>
+      <c r="AS21" s="1"/>
+      <c r="AT21" s="2"/>
+      <c r="AZ21" s="72"/>
+      <c r="BA21" s="2"/>
+      <c r="BB21" s="1"/>
+      <c r="BC21" s="3"/>
+      <c r="BD21" s="1"/>
+      <c r="BE21" s="2"/>
+    </row>
+    <row r="22" spans="3:61" x14ac:dyDescent="0.35">
+      <c r="C22" s="59"/>
+      <c r="D22" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="60"/>
+      <c r="AD22" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF22"/>
+      <c r="AG22"/>
+      <c r="AH22"/>
+      <c r="AO22" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="AZ22" s="70" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="3:61" x14ac:dyDescent="0.35">
+      <c r="C23" s="59"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="60"/>
+      <c r="AD23" s="71"/>
+      <c r="AF23"/>
+      <c r="AG23"/>
+      <c r="AH23"/>
+      <c r="AO23" s="71"/>
+      <c r="AZ23" s="71"/>
+    </row>
+    <row r="24" spans="3:61" x14ac:dyDescent="0.35">
+      <c r="C24" s="59"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="60"/>
+      <c r="W24" s="42"/>
+      <c r="X24" s="42"/>
+      <c r="Y24" s="42"/>
+      <c r="Z24" s="42"/>
+      <c r="AA24" s="42"/>
+      <c r="AB24" s="42"/>
+      <c r="AD24" s="72"/>
+      <c r="AE24" s="2"/>
+      <c r="AF24" s="1"/>
+      <c r="AG24" s="3"/>
+      <c r="AH24" s="1"/>
+      <c r="AI24" s="2"/>
+      <c r="AJ24" s="42"/>
+      <c r="AK24" s="42"/>
+      <c r="AL24" s="42"/>
+      <c r="AM24" s="42"/>
+      <c r="AO24" s="72"/>
+      <c r="AP24" s="2"/>
+      <c r="AQ24" s="1"/>
+      <c r="AR24" s="3"/>
+      <c r="AS24" s="1"/>
+      <c r="AT24" s="2"/>
+      <c r="AZ24" s="72"/>
+      <c r="BA24" s="2"/>
+      <c r="BB24" s="1"/>
+      <c r="BC24" s="3"/>
+      <c r="BD24" s="1"/>
+      <c r="BE24" s="2"/>
+    </row>
+    <row r="25" spans="3:61" x14ac:dyDescent="0.35">
+      <c r="C25" s="59"/>
+      <c r="D25" s="70" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="60"/>
+      <c r="AD25" s="70" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF25"/>
+      <c r="AG25"/>
+      <c r="AH25"/>
+      <c r="AO25" s="70" t="s">
+        <v>7</v>
+      </c>
+      <c r="AZ25" s="70" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="3:61" x14ac:dyDescent="0.35">
+      <c r="C26" s="59"/>
+      <c r="D26" s="71"/>
+      <c r="E26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="60"/>
+      <c r="AD26" s="71"/>
+      <c r="AF26"/>
+      <c r="AG26"/>
+      <c r="AH26" s="38"/>
+      <c r="AO26" s="71"/>
+      <c r="AZ26" s="71"/>
+    </row>
+    <row r="27" spans="3:61" x14ac:dyDescent="0.35">
+      <c r="C27" s="59"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="64">
+        <v>3</v>
+      </c>
+      <c r="W27" s="42"/>
+      <c r="X27" s="42"/>
+      <c r="Y27" s="42"/>
+      <c r="Z27" s="42"/>
+      <c r="AA27" s="42"/>
+      <c r="AB27" s="42"/>
+      <c r="AD27" s="72"/>
+      <c r="AE27" s="2"/>
+      <c r="AF27" s="1"/>
+      <c r="AG27" s="3"/>
+      <c r="AH27" s="5"/>
+      <c r="AI27" s="2"/>
+      <c r="AO27" s="72"/>
+      <c r="AP27" s="2"/>
+      <c r="AQ27" s="1"/>
+      <c r="AR27" s="3"/>
+      <c r="AS27" s="1"/>
+      <c r="AT27" s="2"/>
+      <c r="AZ27" s="72"/>
+      <c r="BA27" s="2"/>
+      <c r="BB27" s="1"/>
+      <c r="BC27" s="3"/>
+      <c r="BD27" s="1"/>
+      <c r="BE27" s="2"/>
+      <c r="BF27" s="49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:61" x14ac:dyDescent="0.35">
+      <c r="C28" s="59"/>
+      <c r="D28" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="60"/>
+      <c r="AD28" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF28"/>
+      <c r="AG28"/>
+      <c r="AH28"/>
+      <c r="AK28" s="78" t="s">
+        <v>13</v>
+      </c>
+      <c r="AL28" s="79"/>
+      <c r="AM28" s="80"/>
+      <c r="AO28" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="AV28" s="73" t="s">
+        <v>27</v>
+      </c>
+      <c r="AW28" s="74"/>
+      <c r="AX28" s="75"/>
+      <c r="AZ28" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="BG28" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="BH28" s="74"/>
+      <c r="BI28" s="75"/>
+    </row>
+    <row r="29" spans="3:61" x14ac:dyDescent="0.35">
+      <c r="C29" s="59"/>
+      <c r="D29" s="71"/>
+      <c r="E29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="60"/>
+      <c r="AD29" s="71"/>
+      <c r="AF29"/>
+      <c r="AG29"/>
+      <c r="AH29"/>
+      <c r="AK29" s="5"/>
+      <c r="AL29" s="76" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM29" s="77"/>
+      <c r="AO29" s="71"/>
+      <c r="AV29" s="5"/>
+      <c r="AW29" s="76" t="s">
+        <v>32</v>
+      </c>
+      <c r="AX29" s="77"/>
+      <c r="AZ29" s="71"/>
+      <c r="BG29" s="5"/>
+      <c r="BH29" s="76" t="s">
+        <v>32</v>
+      </c>
+      <c r="BI29" s="77"/>
+    </row>
+    <row r="30" spans="3:61" x14ac:dyDescent="0.35">
+      <c r="C30" s="59"/>
+      <c r="D30" s="72"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="60"/>
+      <c r="W30" s="42"/>
+      <c r="X30" s="42"/>
+      <c r="Y30" s="42"/>
+      <c r="Z30" s="42"/>
+      <c r="AA30" s="42"/>
+      <c r="AB30" s="42"/>
+      <c r="AD30" s="72"/>
+      <c r="AE30" s="2"/>
+      <c r="AF30" s="1"/>
+      <c r="AG30" s="3"/>
+      <c r="AH30" s="1"/>
+      <c r="AI30" s="2"/>
+      <c r="AJ30" s="42"/>
+      <c r="AK30" s="5"/>
+      <c r="AL30" s="76" t="s">
+        <v>33</v>
+      </c>
+      <c r="AM30" s="77"/>
+      <c r="AO30" s="72"/>
+      <c r="AP30" s="2"/>
+      <c r="AQ30" s="1"/>
+      <c r="AR30" s="3"/>
+      <c r="AS30" s="1"/>
+      <c r="AT30" s="2"/>
+      <c r="AV30" s="5"/>
+      <c r="AW30" s="76" t="s">
+        <v>29</v>
+      </c>
+      <c r="AX30" s="77"/>
+      <c r="AZ30" s="72"/>
+      <c r="BA30" s="2"/>
+      <c r="BB30" s="1"/>
+      <c r="BC30" s="3"/>
+      <c r="BD30" s="1"/>
+      <c r="BE30" s="2"/>
+      <c r="BG30" s="40"/>
+      <c r="BH30" s="76" t="s">
+        <v>29</v>
+      </c>
+      <c r="BI30" s="77"/>
+    </row>
+    <row r="31" spans="3:61" x14ac:dyDescent="0.35">
+      <c r="C31" s="59"/>
+      <c r="D31" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="60"/>
+      <c r="AD31" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF31"/>
+      <c r="AG31"/>
+      <c r="AH31"/>
+      <c r="AK31" s="43"/>
+      <c r="AL31" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="AM31" s="47"/>
+      <c r="AO31" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT31">
+        <v>1</v>
+      </c>
+      <c r="AV31" s="43"/>
+      <c r="AW31" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="AX31" s="44"/>
+      <c r="AZ31" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="BG31" s="43"/>
+      <c r="BH31" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="BI31" s="44"/>
+    </row>
+    <row r="32" spans="3:61" x14ac:dyDescent="0.35">
+      <c r="C32" s="59"/>
+      <c r="D32" s="71"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="60"/>
+      <c r="AD32" s="71"/>
+      <c r="AF32"/>
+      <c r="AG32"/>
+      <c r="AH32"/>
+      <c r="AK32" s="45"/>
+      <c r="AL32" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AM32" s="48"/>
+      <c r="AO32" s="71"/>
+      <c r="AV32" s="45"/>
+      <c r="AW32" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AX32" s="46"/>
+      <c r="AZ32" s="71"/>
+      <c r="BG32" s="45"/>
+      <c r="BH32" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="BI32" s="46"/>
+    </row>
+    <row r="33" spans="3:57" x14ac:dyDescent="0.35">
+      <c r="C33" s="59"/>
+      <c r="D33" s="72"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="60"/>
+      <c r="W33" s="42"/>
+      <c r="X33" s="42"/>
+      <c r="Y33" s="42"/>
+      <c r="Z33" s="42"/>
+      <c r="AA33" s="42"/>
+      <c r="AB33" s="42"/>
+      <c r="AD33" s="72"/>
+      <c r="AE33" s="2"/>
+      <c r="AF33" s="1"/>
+      <c r="AG33" s="3"/>
+      <c r="AH33" s="1"/>
+      <c r="AI33" s="2"/>
+      <c r="AJ33" s="42"/>
+      <c r="AK33" s="42"/>
+      <c r="AL33" s="42"/>
+      <c r="AM33" s="42"/>
+      <c r="AO33" s="72"/>
+      <c r="AP33" s="2"/>
+      <c r="AQ33" s="1"/>
+      <c r="AR33" s="3"/>
+      <c r="AS33" s="1"/>
+      <c r="AT33" s="2"/>
+      <c r="AZ33" s="72"/>
+      <c r="BA33" s="2"/>
+      <c r="BB33" s="1"/>
+      <c r="BC33" s="3"/>
+      <c r="BD33" s="1"/>
+      <c r="BE33" s="2"/>
+    </row>
+    <row r="34" spans="3:57" x14ac:dyDescent="0.35">
+      <c r="C34" s="59"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="68"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="I34" s="69"/>
+      <c r="J34" s="60"/>
+      <c r="W34" s="49"/>
+      <c r="X34" s="49"/>
+      <c r="Y34" s="49"/>
+      <c r="Z34" s="49"/>
+      <c r="AA34" s="49"/>
+      <c r="AB34" s="49"/>
+      <c r="AE34" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF34" s="66"/>
+      <c r="AG34"/>
+      <c r="AH34" s="65" t="s">
+        <v>11</v>
+      </c>
+      <c r="AI34" s="65"/>
+      <c r="AJ34" s="49"/>
+      <c r="AK34" s="49"/>
+      <c r="AL34" s="49"/>
+      <c r="AM34" s="49"/>
+      <c r="AP34" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="AQ34" s="66"/>
+      <c r="AS34" s="65" t="s">
+        <v>11</v>
+      </c>
+      <c r="AT34" s="65"/>
+      <c r="BA34" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="BB34" s="66"/>
+      <c r="BD34" s="65" t="s">
+        <v>11</v>
+      </c>
+      <c r="BE34" s="65"/>
+    </row>
+    <row r="35" spans="3:57" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C35" s="61"/>
+      <c r="D35" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="E35" s="67"/>
+      <c r="F35" s="67"/>
+      <c r="G35" s="67"/>
+      <c r="H35" s="67"/>
+      <c r="I35" s="67"/>
+      <c r="J35" s="62"/>
+      <c r="AE35" s="50"/>
+      <c r="AF35"/>
+      <c r="AG35"/>
+      <c r="AH35"/>
+      <c r="AP35" s="50"/>
+      <c r="BA35" s="50"/>
+    </row>
+    <row r="36" spans="3:57" x14ac:dyDescent="0.35">
+      <c r="M36" s="51"/>
+      <c r="N36" s="51"/>
+      <c r="O36" s="51"/>
+      <c r="P36" s="51"/>
+      <c r="Q36" s="51"/>
+      <c r="R36" s="51"/>
+      <c r="S36" s="51"/>
+      <c r="T36" s="51"/>
+      <c r="U36" s="51"/>
+      <c r="V36" s="51"/>
+      <c r="W36" s="51"/>
+      <c r="X36" s="51"/>
+      <c r="Y36" s="51"/>
+      <c r="Z36" s="51"/>
+      <c r="AA36" s="51"/>
+      <c r="AB36" s="51"/>
+      <c r="AK36" s="51"/>
+      <c r="AL36" s="51"/>
+      <c r="AM36" s="51"/>
+    </row>
+    <row r="37" spans="3:57" x14ac:dyDescent="0.35">
+      <c r="L37" s="49"/>
+      <c r="M37" s="49"/>
+      <c r="N37" s="49"/>
+      <c r="O37" s="49"/>
+      <c r="P37" s="49"/>
+      <c r="Q37" s="49"/>
+      <c r="R37" s="49"/>
+      <c r="S37" s="49"/>
+      <c r="T37" s="49"/>
+      <c r="U37" s="49"/>
+      <c r="V37" s="49"/>
+      <c r="W37" s="49"/>
+      <c r="X37" s="49"/>
+      <c r="Y37" s="49"/>
+      <c r="Z37" s="49"/>
+      <c r="AA37" s="49"/>
+      <c r="AB37" s="49"/>
+      <c r="AK37" s="49"/>
+      <c r="AL37" s="49"/>
+      <c r="AM37" s="49"/>
+    </row>
+    <row r="38" spans="3:57" x14ac:dyDescent="0.35">
+      <c r="K38" s="49"/>
+      <c r="L38" s="49"/>
+      <c r="M38" s="49"/>
+      <c r="N38" s="49"/>
+      <c r="O38" s="49"/>
+      <c r="P38" s="49"/>
+      <c r="Q38" s="49"/>
+      <c r="R38" s="49"/>
+      <c r="S38" s="49"/>
+      <c r="T38" s="49"/>
+      <c r="U38" s="49"/>
+      <c r="V38" s="49"/>
+      <c r="W38" s="49"/>
+      <c r="X38" s="49"/>
+      <c r="Y38" s="49"/>
+      <c r="Z38" s="49"/>
+      <c r="AA38" s="49"/>
+      <c r="AB38" s="49"/>
+      <c r="AK38" s="49"/>
+      <c r="AL38" s="49"/>
+      <c r="AM38" s="49"/>
+    </row>
+  </sheetData>
+  <mergeCells count="58">
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="AD4:AD6"/>
+    <mergeCell ref="AO4:AO6"/>
+    <mergeCell ref="AZ4:AZ6"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="AD13:AD15"/>
+    <mergeCell ref="AO13:AO15"/>
+    <mergeCell ref="AZ13:AZ15"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="AD7:AD9"/>
+    <mergeCell ref="AO7:AO9"/>
+    <mergeCell ref="AZ7:AZ9"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="AD10:AD12"/>
+    <mergeCell ref="AO10:AO12"/>
+    <mergeCell ref="AZ10:AZ12"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="AD19:AD21"/>
+    <mergeCell ref="AO19:AO21"/>
+    <mergeCell ref="AZ19:AZ21"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="AD16:AD18"/>
+    <mergeCell ref="AO16:AO18"/>
+    <mergeCell ref="AZ16:AZ18"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="AD25:AD27"/>
+    <mergeCell ref="AO25:AO27"/>
+    <mergeCell ref="AZ25:AZ27"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="AD22:AD24"/>
+    <mergeCell ref="AO22:AO24"/>
+    <mergeCell ref="AZ22:AZ24"/>
+    <mergeCell ref="BG28:BI28"/>
+    <mergeCell ref="AL29:AM29"/>
+    <mergeCell ref="AW29:AX29"/>
+    <mergeCell ref="BH29:BI29"/>
+    <mergeCell ref="AL30:AM30"/>
+    <mergeCell ref="AW30:AX30"/>
+    <mergeCell ref="BH30:BI30"/>
+    <mergeCell ref="AK28:AM28"/>
+    <mergeCell ref="AO28:AO30"/>
+    <mergeCell ref="AV28:AX28"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="AD31:AD33"/>
+    <mergeCell ref="AO31:AO33"/>
+    <mergeCell ref="AZ31:AZ33"/>
+    <mergeCell ref="AZ28:AZ30"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="AD28:AD30"/>
+    <mergeCell ref="AS34:AT34"/>
+    <mergeCell ref="BA34:BB34"/>
+    <mergeCell ref="BD34:BE34"/>
+    <mergeCell ref="D35:I35"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="AE34:AF34"/>
+    <mergeCell ref="AH34:AI34"/>
+    <mergeCell ref="AP34:AQ34"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{827A9AC5-4BE2-4792-A064-E8497A22CCD7}">
-  <dimension ref="B1:BG36"/>
+  <dimension ref="B1:AT36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
+      <selection activeCell="S39" sqref="S39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10168,87 +15284,67 @@
     <col min="9" max="9" width="4.453125" customWidth="1"/>
     <col min="10" max="10" width="3.7265625" customWidth="1"/>
     <col min="11" max="11" width="11.1796875" customWidth="1"/>
-    <col min="29" max="29" width="12.08984375" customWidth="1"/>
-    <col min="30" max="30" width="3.1796875" style="9" customWidth="1"/>
-    <col min="31" max="31" width="8.7265625" style="9"/>
-    <col min="32" max="32" width="3.1796875" style="9" customWidth="1"/>
-    <col min="35" max="35" width="3.90625" customWidth="1"/>
-    <col min="40" max="40" width="12.08984375" customWidth="1"/>
+    <col min="16" max="16" width="12.08984375" customWidth="1"/>
+    <col min="17" max="17" width="3.1796875" style="9" customWidth="1"/>
+    <col min="18" max="18" width="8.7265625" style="9"/>
+    <col min="19" max="19" width="3.1796875" style="9" customWidth="1"/>
+    <col min="22" max="22" width="3.90625" customWidth="1"/>
+    <col min="27" max="27" width="12.08984375" customWidth="1"/>
+    <col min="28" max="28" width="3.1796875" customWidth="1"/>
+    <col min="30" max="30" width="3.1796875" customWidth="1"/>
+    <col min="33" max="33" width="3.6328125" customWidth="1"/>
+    <col min="38" max="38" width="12.08984375" customWidth="1"/>
+    <col min="39" max="39" width="3.1796875" customWidth="1"/>
     <col min="41" max="41" width="3.1796875" customWidth="1"/>
-    <col min="43" max="43" width="3.1796875" customWidth="1"/>
-    <col min="46" max="46" width="3.6328125" customWidth="1"/>
-    <col min="51" max="51" width="12.08984375" customWidth="1"/>
-    <col min="52" max="52" width="3.1796875" customWidth="1"/>
-    <col min="54" max="54" width="3.1796875" customWidth="1"/>
-    <col min="57" max="57" width="3.81640625" customWidth="1"/>
-    <col min="59" max="59" width="6.453125" customWidth="1"/>
-    <col min="61" max="61" width="3.1796875" customWidth="1"/>
-    <col min="66" max="66" width="3.1796875" customWidth="1"/>
-    <col min="68" max="68" width="3.1796875" customWidth="1"/>
+    <col min="44" max="44" width="3.81640625" customWidth="1"/>
+    <col min="46" max="46" width="6.453125" customWidth="1"/>
+    <col min="48" max="48" width="3.1796875" customWidth="1"/>
+    <col min="53" max="53" width="3.1796875" customWidth="1"/>
+    <col min="55" max="55" width="3.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:56" x14ac:dyDescent="0.35">
-      <c r="AD1"/>
-      <c r="AE1"/>
-      <c r="AF1"/>
+    <row r="1" spans="2:43" x14ac:dyDescent="0.35">
+      <c r="Q1"/>
+      <c r="R1"/>
+      <c r="S1"/>
     </row>
-    <row r="2" spans="2:56" x14ac:dyDescent="0.35">
-      <c r="B2" s="59" t="s">
+    <row r="2" spans="2:43" x14ac:dyDescent="0.35">
+      <c r="B2" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="49" t="s">
+      <c r="I2" s="78" t="s">
         <v>58</v>
       </c>
-      <c r="J2" s="50"/>
-      <c r="K2" s="51"/>
-      <c r="M2" s="69" t="s">
-        <v>56</v>
-      </c>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="71"/>
-      <c r="AB2" s="59" t="s">
+      <c r="J2" s="79"/>
+      <c r="K2" s="80"/>
+      <c r="O2" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="AD2"/>
-      <c r="AE2"/>
-      <c r="AF2"/>
-      <c r="AM2" s="59" t="s">
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="Z2" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="AX2" s="59" t="s">
+      <c r="AK2" s="70" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:56" x14ac:dyDescent="0.35">
-      <c r="B3" s="60"/>
+    <row r="3" spans="2:43" x14ac:dyDescent="0.35">
+      <c r="B3" s="71"/>
       <c r="I3" s="43"/>
       <c r="J3" s="42"/>
       <c r="K3" s="44"/>
-      <c r="M3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="46"/>
-      <c r="AB3" s="60"/>
-      <c r="AD3"/>
-      <c r="AE3"/>
-      <c r="AF3"/>
-      <c r="AM3" s="60"/>
-      <c r="AX3" s="60"/>
-      <c r="AZ3" s="39"/>
+      <c r="O3" s="71"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="Z3" s="71"/>
+      <c r="AK3" s="71"/>
+      <c r="AM3" s="39"/>
     </row>
-    <row r="4" spans="2:56" x14ac:dyDescent="0.35">
-      <c r="B4" s="61"/>
+    <row r="4" spans="2:43" x14ac:dyDescent="0.35">
+      <c r="B4" s="72"/>
       <c r="C4" s="2"/>
       <c r="D4" s="1"/>
       <c r="E4" s="3"/>
@@ -10256,84 +15352,71 @@
       <c r="G4" s="2"/>
       <c r="H4" s="42"/>
       <c r="I4" s="5"/>
-      <c r="J4" s="52" t="s">
+      <c r="J4" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="53"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="42"/>
-      <c r="S4" s="42"/>
-      <c r="T4" s="42"/>
+      <c r="K4" s="77"/>
+      <c r="O4" s="72"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="2"/>
       <c r="U4" s="42"/>
       <c r="V4" s="42"/>
       <c r="W4" s="42"/>
       <c r="X4" s="42"/>
-      <c r="Y4" s="42"/>
-      <c r="Z4" s="42"/>
-      <c r="AB4" s="61"/>
-      <c r="AC4" s="2"/>
-      <c r="AD4" s="5"/>
-      <c r="AE4" s="3"/>
-      <c r="AF4" s="1"/>
-      <c r="AG4" s="2"/>
-      <c r="AH4" s="42"/>
-      <c r="AI4" s="42"/>
-      <c r="AJ4" s="42"/>
-      <c r="AK4" s="42"/>
-      <c r="AM4" s="61"/>
-      <c r="AN4" s="2"/>
-      <c r="AO4" s="5"/>
-      <c r="AP4" s="3"/>
-      <c r="AQ4" s="1"/>
-      <c r="AR4" s="2"/>
-      <c r="AX4" s="61"/>
-      <c r="AY4" s="2"/>
-      <c r="AZ4" s="5"/>
-      <c r="BA4" s="3"/>
-      <c r="BB4" s="1"/>
-      <c r="BC4" s="2"/>
+      <c r="Z4" s="72"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="3"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="2"/>
+      <c r="AK4" s="72"/>
+      <c r="AL4" s="2"/>
+      <c r="AM4" s="5"/>
+      <c r="AN4" s="3"/>
+      <c r="AO4" s="1"/>
+      <c r="AP4" s="2"/>
     </row>
-    <row r="5" spans="2:56" x14ac:dyDescent="0.35">
-      <c r="B5" s="59" t="s">
+    <row r="5" spans="2:43" x14ac:dyDescent="0.35">
+      <c r="B5" s="70" t="s">
         <v>1</v>
       </c>
       <c r="I5" s="5"/>
-      <c r="J5" s="52" t="s">
+      <c r="J5" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="53"/>
-      <c r="AB5" s="59" t="s">
+      <c r="K5" s="77"/>
+      <c r="O5" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="AD5"/>
-      <c r="AE5"/>
-      <c r="AF5"/>
-      <c r="AM5" s="59" t="s">
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="Z5" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="AX5" s="59" t="s">
+      <c r="AK5" s="70" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:56" x14ac:dyDescent="0.35">
-      <c r="B6" s="60"/>
+    <row r="6" spans="2:43" x14ac:dyDescent="0.35">
+      <c r="B6" s="71"/>
       <c r="I6" s="43"/>
       <c r="J6" s="42" t="s">
         <v>55</v>
       </c>
       <c r="K6" s="44"/>
-      <c r="AB6" s="60"/>
-      <c r="AD6"/>
-      <c r="AE6"/>
-      <c r="AF6"/>
-      <c r="AM6" s="60"/>
-      <c r="AX6" s="60"/>
+      <c r="O6" s="71"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="Z6" s="71"/>
+      <c r="AK6" s="71"/>
     </row>
-    <row r="7" spans="2:56" x14ac:dyDescent="0.35">
-      <c r="B7" s="61"/>
+    <row r="7" spans="2:43" x14ac:dyDescent="0.35">
+      <c r="B7" s="72"/>
       <c r="C7" s="2"/>
       <c r="D7" s="1"/>
       <c r="E7" s="3"/>
@@ -10345,158 +15428,132 @@
         <v>31</v>
       </c>
       <c r="K7" s="46"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="42"/>
-      <c r="P7" s="42"/>
-      <c r="Q7" s="42"/>
-      <c r="R7" s="42"/>
-      <c r="S7" s="42"/>
-      <c r="T7" s="42"/>
+      <c r="O7" s="72"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="2"/>
       <c r="U7" s="42"/>
       <c r="V7" s="42"/>
       <c r="W7" s="42"/>
       <c r="X7" s="42"/>
-      <c r="Y7" s="42"/>
-      <c r="Z7" s="42"/>
-      <c r="AB7" s="61"/>
-      <c r="AC7" s="2"/>
+      <c r="Z7" s="72"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="3"/>
       <c r="AD7" s="1"/>
-      <c r="AE7" s="3"/>
-      <c r="AF7" s="1"/>
-      <c r="AG7" s="2"/>
-      <c r="AH7" s="42"/>
-      <c r="AI7" s="42"/>
-      <c r="AJ7" s="42"/>
-      <c r="AK7" s="42"/>
-      <c r="AM7" s="61"/>
-      <c r="AN7" s="2"/>
+      <c r="AE7" s="2"/>
+      <c r="AK7" s="72"/>
+      <c r="AL7" s="2"/>
+      <c r="AM7" s="1"/>
+      <c r="AN7" s="3"/>
       <c r="AO7" s="1"/>
-      <c r="AP7" s="3"/>
-      <c r="AQ7" s="1"/>
-      <c r="AR7" s="2"/>
-      <c r="AX7" s="61"/>
-      <c r="AY7" s="2"/>
-      <c r="AZ7" s="1"/>
-      <c r="BA7" s="3"/>
-      <c r="BB7" s="1"/>
-      <c r="BC7" s="2"/>
+      <c r="AP7" s="2"/>
     </row>
-    <row r="8" spans="2:56" x14ac:dyDescent="0.35">
-      <c r="B8" s="59" t="s">
+    <row r="8" spans="2:43" x14ac:dyDescent="0.35">
+      <c r="B8" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="AB8" s="59" t="s">
+      <c r="O8" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="AD8"/>
-      <c r="AE8"/>
-      <c r="AF8"/>
-      <c r="AM8" s="59" t="s">
+      <c r="Q8"/>
+      <c r="R8"/>
+      <c r="S8"/>
+      <c r="Z8" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="AX8" s="59" t="s">
+      <c r="AK8" s="70" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="2:56" x14ac:dyDescent="0.35">
-      <c r="B9" s="60"/>
-      <c r="I9" s="72" t="s">
+    <row r="9" spans="2:43" x14ac:dyDescent="0.35">
+      <c r="B9" s="71"/>
+      <c r="I9" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="J9" s="72"/>
-      <c r="K9" s="72"/>
-      <c r="L9" s="72"/>
-      <c r="AB9" s="60"/>
-      <c r="AD9"/>
-      <c r="AE9"/>
-      <c r="AF9"/>
-      <c r="AM9" s="60"/>
-      <c r="AX9" s="60"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="69"/>
+      <c r="L9" s="69"/>
+      <c r="O9" s="71"/>
+      <c r="Q9"/>
+      <c r="R9"/>
+      <c r="S9"/>
+      <c r="Z9" s="71"/>
+      <c r="AK9" s="71"/>
     </row>
-    <row r="10" spans="2:56" x14ac:dyDescent="0.35">
-      <c r="B10" s="61"/>
+    <row r="10" spans="2:43" x14ac:dyDescent="0.35">
+      <c r="B10" s="72"/>
       <c r="C10" s="2"/>
       <c r="D10" s="1"/>
       <c r="E10" s="3"/>
       <c r="F10" s="1"/>
       <c r="G10" s="2"/>
       <c r="H10" s="42"/>
-      <c r="I10" s="57" t="s">
+      <c r="I10" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="J10" s="57"/>
-      <c r="K10" s="57"/>
-      <c r="L10" s="57"/>
-      <c r="N10" s="42"/>
-      <c r="O10" s="42"/>
-      <c r="P10" s="42"/>
-      <c r="Q10" s="42"/>
-      <c r="R10" s="42"/>
-      <c r="S10" s="42"/>
-      <c r="T10" s="42"/>
+      <c r="J10" s="65"/>
+      <c r="K10" s="65"/>
+      <c r="L10" s="65"/>
+      <c r="O10" s="72"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="2"/>
       <c r="U10" s="42"/>
       <c r="V10" s="42"/>
       <c r="W10" s="42"/>
       <c r="X10" s="42"/>
-      <c r="Y10" s="42"/>
-      <c r="Z10" s="42"/>
-      <c r="AB10" s="61"/>
-      <c r="AC10" s="2"/>
+      <c r="Z10" s="72"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="3"/>
       <c r="AD10" s="1"/>
-      <c r="AE10" s="3"/>
-      <c r="AF10" s="1"/>
-      <c r="AG10" s="2"/>
-      <c r="AH10" s="42"/>
-      <c r="AI10" s="42"/>
-      <c r="AJ10" s="42"/>
-      <c r="AK10" s="42"/>
-      <c r="AM10" s="61"/>
-      <c r="AN10" s="2"/>
+      <c r="AE10" s="2"/>
+      <c r="AK10" s="72"/>
+      <c r="AL10" s="2"/>
+      <c r="AM10" s="1"/>
+      <c r="AN10" s="3"/>
       <c r="AO10" s="1"/>
-      <c r="AP10" s="3"/>
-      <c r="AQ10" s="1"/>
-      <c r="AR10" s="2"/>
-      <c r="AX10" s="61"/>
-      <c r="AY10" s="2"/>
-      <c r="AZ10" s="1"/>
-      <c r="BA10" s="3"/>
-      <c r="BB10" s="1"/>
-      <c r="BC10" s="2"/>
+      <c r="AP10" s="2"/>
     </row>
-    <row r="11" spans="2:56" x14ac:dyDescent="0.35">
-      <c r="B11" s="59" t="s">
+    <row r="11" spans="2:43" x14ac:dyDescent="0.35">
+      <c r="B11" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="AB11" s="59" t="s">
+      <c r="O11" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="AD11"/>
-      <c r="AE11"/>
-      <c r="AF11"/>
-      <c r="AM11" s="59" t="s">
+      <c r="Q11"/>
+      <c r="R11"/>
+      <c r="S11"/>
+      <c r="Z11" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="AX11" s="59" t="s">
+      <c r="AK11" s="70" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="2:56" x14ac:dyDescent="0.35">
-      <c r="B12" s="60"/>
-      <c r="I12" s="72" t="s">
+    <row r="12" spans="2:43" x14ac:dyDescent="0.35">
+      <c r="B12" s="71"/>
+      <c r="I12" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="J12" s="72"/>
-      <c r="K12" s="72"/>
-      <c r="L12" s="72"/>
-      <c r="AB12" s="60"/>
-      <c r="AD12"/>
-      <c r="AE12"/>
-      <c r="AF12"/>
-      <c r="AM12" s="60"/>
-      <c r="AX12" s="60"/>
+      <c r="J12" s="69"/>
+      <c r="K12" s="69"/>
+      <c r="L12" s="69"/>
+      <c r="O12" s="71"/>
+      <c r="Q12"/>
+      <c r="R12"/>
+      <c r="S12"/>
+      <c r="Z12" s="71"/>
+      <c r="AK12" s="71"/>
     </row>
-    <row r="13" spans="2:56" x14ac:dyDescent="0.35">
-      <c r="B13" s="61"/>
+    <row r="13" spans="2:43" x14ac:dyDescent="0.35">
+      <c r="B13" s="72"/>
       <c r="C13" s="2"/>
       <c r="D13" s="1"/>
       <c r="E13" s="3"/>
@@ -10505,92 +15562,79 @@
         <v>7</v>
       </c>
       <c r="H13" s="42"/>
-      <c r="I13" s="73" t="s">
+      <c r="I13" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="J13" s="73"/>
-      <c r="K13" s="73"/>
-      <c r="L13" s="73"/>
-      <c r="N13" s="42"/>
-      <c r="O13" s="42"/>
-      <c r="P13" s="42"/>
-      <c r="Q13" s="42"/>
-      <c r="R13" s="42"/>
-      <c r="S13" s="42"/>
-      <c r="T13" s="42"/>
+      <c r="J13" s="81"/>
+      <c r="K13" s="81"/>
+      <c r="L13" s="81"/>
+      <c r="O13" s="72"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="2"/>
       <c r="U13" s="42"/>
       <c r="V13" s="42"/>
       <c r="W13" s="42"/>
       <c r="X13" s="42"/>
-      <c r="Y13" s="42"/>
-      <c r="Z13" s="42"/>
-      <c r="AB13" s="61"/>
-      <c r="AC13" s="2"/>
+      <c r="Z13" s="72"/>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="3"/>
       <c r="AD13" s="1"/>
-      <c r="AE13" s="3"/>
-      <c r="AF13" s="1"/>
-      <c r="AG13" s="2"/>
-      <c r="AH13" s="42"/>
-      <c r="AI13" s="42"/>
-      <c r="AJ13" s="42"/>
-      <c r="AK13" s="42"/>
-      <c r="AM13" s="61"/>
-      <c r="AN13" s="2"/>
+      <c r="AE13" s="2"/>
+      <c r="AK13" s="72"/>
+      <c r="AL13" s="2"/>
+      <c r="AM13" s="1"/>
+      <c r="AN13" s="3"/>
       <c r="AO13" s="1"/>
-      <c r="AP13" s="3"/>
-      <c r="AQ13" s="1"/>
-      <c r="AR13" s="2"/>
-      <c r="AX13" s="61"/>
-      <c r="AY13" s="2"/>
-      <c r="AZ13" s="1"/>
-      <c r="BA13" s="3"/>
-      <c r="BB13" s="1"/>
-      <c r="BC13" s="2"/>
+      <c r="AP13" s="2"/>
     </row>
-    <row r="14" spans="2:56" x14ac:dyDescent="0.35">
-      <c r="B14" s="59" t="s">
+    <row r="14" spans="2:43" x14ac:dyDescent="0.35">
+      <c r="B14" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="73" t="s">
+      <c r="I14" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="J14" s="73"/>
-      <c r="K14" s="73"/>
-      <c r="L14" s="73"/>
-      <c r="AB14" s="59" t="s">
+      <c r="J14" s="81"/>
+      <c r="K14" s="81"/>
+      <c r="L14" s="81"/>
+      <c r="O14" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="AD14"/>
-      <c r="AE14"/>
-      <c r="AF14"/>
-      <c r="AM14" s="59" t="s">
+      <c r="Q14"/>
+      <c r="R14"/>
+      <c r="S14"/>
+      <c r="Z14" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="AX14" s="59" t="s">
+      <c r="AK14" s="70" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="2:56" x14ac:dyDescent="0.35">
-      <c r="B15" s="60"/>
-      <c r="I15" s="73" t="s">
+    <row r="15" spans="2:43" x14ac:dyDescent="0.35">
+      <c r="B15" s="71"/>
+      <c r="I15" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="J15" s="73"/>
-      <c r="K15" s="73"/>
-      <c r="L15" s="73"/>
-      <c r="AB15" s="60"/>
-      <c r="AD15"/>
-      <c r="AE15"/>
-      <c r="AF15"/>
-      <c r="AM15" s="60"/>
-      <c r="AQ15" s="39"/>
-      <c r="AX15" s="60"/>
-      <c r="BD15" s="41">
+      <c r="J15" s="81"/>
+      <c r="K15" s="81"/>
+      <c r="L15" s="81"/>
+      <c r="O15" s="71"/>
+      <c r="Q15"/>
+      <c r="R15"/>
+      <c r="S15"/>
+      <c r="Z15" s="71"/>
+      <c r="AD15" s="39"/>
+      <c r="AK15" s="71"/>
+      <c r="AQ15" s="41">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="2:56" x14ac:dyDescent="0.35">
-      <c r="B16" s="61"/>
+    <row r="16" spans="2:43" x14ac:dyDescent="0.35">
+      <c r="B16" s="72"/>
       <c r="C16" s="2"/>
       <c r="D16" s="1"/>
       <c r="E16" s="3"/>
@@ -10600,262 +15644,223 @@
       <c r="K16" s="42"/>
       <c r="L16" s="42"/>
       <c r="M16" s="42"/>
-      <c r="N16" s="42"/>
-      <c r="O16" s="42"/>
-      <c r="P16" s="42"/>
-      <c r="Q16" s="42"/>
-      <c r="R16" s="42"/>
-      <c r="S16" s="42"/>
-      <c r="T16" s="42"/>
+      <c r="O16" s="72"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="3"/>
+      <c r="T16" s="2"/>
       <c r="U16" s="42"/>
       <c r="V16" s="42"/>
       <c r="W16" s="42"/>
       <c r="X16" s="42"/>
-      <c r="Y16" s="42"/>
-      <c r="Z16" s="42"/>
-      <c r="AB16" s="61"/>
-      <c r="AC16" s="2"/>
-      <c r="AD16" s="1"/>
-      <c r="AE16" s="3"/>
-      <c r="AG16" s="2"/>
-      <c r="AH16" s="42"/>
-      <c r="AI16" s="42"/>
-      <c r="AJ16" s="42"/>
-      <c r="AK16" s="42"/>
-      <c r="AM16" s="61"/>
-      <c r="AN16" s="2"/>
-      <c r="AO16" s="1"/>
-      <c r="AP16" s="3"/>
-      <c r="AQ16" s="5"/>
-      <c r="AR16" s="2"/>
-      <c r="AS16" s="41">
+      <c r="Z16" s="72"/>
+      <c r="AA16" s="2"/>
+      <c r="AB16" s="1"/>
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="5"/>
+      <c r="AE16" s="2"/>
+      <c r="AF16" s="41">
         <v>6</v>
       </c>
-      <c r="AT16" s="41"/>
-      <c r="AU16" s="41"/>
-      <c r="AV16" s="41"/>
-      <c r="AW16" s="41"/>
-      <c r="AX16" s="61"/>
-      <c r="AY16" s="2"/>
-      <c r="AZ16" s="1"/>
-      <c r="BA16" s="3"/>
-      <c r="BB16" s="40"/>
-      <c r="BC16" s="2"/>
+      <c r="AG16" s="41"/>
+      <c r="AH16" s="41"/>
+      <c r="AI16" s="41"/>
+      <c r="AJ16" s="41"/>
+      <c r="AK16" s="72"/>
+      <c r="AL16" s="2"/>
+      <c r="AM16" s="1"/>
+      <c r="AN16" s="3"/>
+      <c r="AO16" s="40"/>
+      <c r="AP16" s="2"/>
     </row>
-    <row r="17" spans="2:59" x14ac:dyDescent="0.35">
-      <c r="B17" s="59" t="s">
+    <row r="17" spans="2:46" x14ac:dyDescent="0.35">
+      <c r="B17" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="I17" s="72" t="s">
+      <c r="I17" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="J17" s="72"/>
-      <c r="K17" s="72"/>
-      <c r="L17" s="72"/>
-      <c r="M17" s="68"/>
-      <c r="AB17" s="59" t="s">
+      <c r="J17" s="69"/>
+      <c r="K17" s="69"/>
+      <c r="L17" s="69"/>
+      <c r="M17" s="52"/>
+      <c r="O17" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="AD17"/>
-      <c r="AE17"/>
-      <c r="AF17"/>
-      <c r="AM17" s="59" t="s">
+      <c r="Q17"/>
+      <c r="R17"/>
+      <c r="S17"/>
+      <c r="Z17" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="AX17" s="59" t="s">
+      <c r="AK17" s="70" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="2:59" x14ac:dyDescent="0.35">
-      <c r="B18" s="60"/>
-      <c r="I18" s="73" t="s">
+    <row r="18" spans="2:46" x14ac:dyDescent="0.35">
+      <c r="B18" s="71"/>
+      <c r="I18" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="J18" s="73"/>
-      <c r="K18" s="73"/>
-      <c r="L18" s="73"/>
-      <c r="AB18" s="60"/>
-      <c r="AD18"/>
-      <c r="AE18"/>
-      <c r="AF18"/>
-      <c r="AM18" s="60"/>
-      <c r="AX18" s="60"/>
+      <c r="J18" s="81"/>
+      <c r="K18" s="81"/>
+      <c r="L18" s="81"/>
+      <c r="O18" s="71"/>
+      <c r="Q18"/>
+      <c r="R18"/>
+      <c r="S18"/>
+      <c r="Z18" s="71"/>
+      <c r="AK18" s="71"/>
     </row>
-    <row r="19" spans="2:59" x14ac:dyDescent="0.35">
-      <c r="B19" s="61"/>
+    <row r="19" spans="2:46" x14ac:dyDescent="0.35">
+      <c r="B19" s="72"/>
       <c r="C19" s="2"/>
       <c r="D19" s="1"/>
       <c r="E19" s="3"/>
       <c r="F19" s="1"/>
       <c r="G19" s="2"/>
       <c r="H19" s="42"/>
-      <c r="I19" s="73" t="s">
+      <c r="I19" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="J19" s="73"/>
-      <c r="K19" s="73"/>
-      <c r="L19" s="73"/>
+      <c r="J19" s="81"/>
+      <c r="K19" s="81"/>
+      <c r="L19" s="81"/>
       <c r="M19" s="42"/>
-      <c r="N19" s="42"/>
-      <c r="O19" s="42"/>
-      <c r="P19" s="42"/>
-      <c r="Q19" s="42"/>
-      <c r="R19" s="42"/>
-      <c r="S19" s="42"/>
-      <c r="T19" s="42"/>
+      <c r="O19" s="72"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="2"/>
       <c r="U19" s="42"/>
       <c r="V19" s="42"/>
       <c r="W19" s="42"/>
       <c r="X19" s="42"/>
-      <c r="Y19" s="42"/>
-      <c r="Z19" s="42"/>
-      <c r="AB19" s="61"/>
-      <c r="AC19" s="2"/>
+      <c r="Z19" s="72"/>
+      <c r="AA19" s="2"/>
+      <c r="AB19" s="1"/>
+      <c r="AC19" s="3"/>
       <c r="AD19" s="1"/>
-      <c r="AE19" s="3"/>
-      <c r="AF19" s="1"/>
-      <c r="AG19" s="2"/>
-      <c r="AH19" s="42"/>
-      <c r="AI19" s="42"/>
-      <c r="AJ19" s="42"/>
-      <c r="AK19" s="42"/>
-      <c r="AM19" s="61"/>
-      <c r="AN19" s="2"/>
+      <c r="AE19" s="2"/>
+      <c r="AK19" s="72"/>
+      <c r="AL19" s="2"/>
+      <c r="AM19" s="1"/>
+      <c r="AN19" s="3"/>
       <c r="AO19" s="1"/>
-      <c r="AP19" s="3"/>
-      <c r="AQ19" s="1"/>
-      <c r="AR19" s="2"/>
-      <c r="AX19" s="61"/>
-      <c r="AY19" s="2"/>
-      <c r="AZ19" s="1"/>
-      <c r="BA19" s="3"/>
-      <c r="BB19" s="1"/>
-      <c r="BC19" s="2"/>
+      <c r="AP19" s="2"/>
     </row>
-    <row r="20" spans="2:59" x14ac:dyDescent="0.35">
-      <c r="B20" s="59" t="s">
+    <row r="20" spans="2:46" x14ac:dyDescent="0.35">
+      <c r="B20" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="I20" s="73" t="s">
+      <c r="I20" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="J20" s="73"/>
-      <c r="K20" s="73"/>
-      <c r="L20" s="73"/>
-      <c r="AB20" s="59" t="s">
+      <c r="J20" s="81"/>
+      <c r="K20" s="81"/>
+      <c r="L20" s="81"/>
+      <c r="O20" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="AD20"/>
-      <c r="AE20"/>
-      <c r="AF20"/>
-      <c r="AM20" s="59" t="s">
+      <c r="Q20"/>
+      <c r="R20"/>
+      <c r="S20"/>
+      <c r="Z20" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="AX20" s="59" t="s">
+      <c r="AK20" s="70" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="2:59" x14ac:dyDescent="0.35">
-      <c r="B21" s="60"/>
-      <c r="I21" s="73" t="s">
+    <row r="21" spans="2:46" x14ac:dyDescent="0.35">
+      <c r="B21" s="71"/>
+      <c r="I21" s="81" t="s">
         <v>45</v>
       </c>
-      <c r="J21" s="73"/>
-      <c r="K21" s="73"/>
-      <c r="L21" s="73"/>
-      <c r="AB21" s="60"/>
-      <c r="AD21"/>
-      <c r="AE21"/>
-      <c r="AF21"/>
-      <c r="AM21" s="60"/>
-      <c r="AX21" s="60"/>
+      <c r="J21" s="81"/>
+      <c r="K21" s="81"/>
+      <c r="L21" s="81"/>
+      <c r="O21" s="71"/>
+      <c r="Q21"/>
+      <c r="R21"/>
+      <c r="S21"/>
+      <c r="Z21" s="71"/>
+      <c r="AK21" s="71"/>
     </row>
-    <row r="22" spans="2:59" x14ac:dyDescent="0.35">
-      <c r="B22" s="61"/>
+    <row r="22" spans="2:46" x14ac:dyDescent="0.35">
+      <c r="B22" s="72"/>
       <c r="C22" s="2"/>
       <c r="D22" s="1"/>
       <c r="E22" s="3"/>
       <c r="F22" s="1"/>
       <c r="G22" s="2"/>
       <c r="H22" s="42"/>
-      <c r="I22" s="73" t="s">
+      <c r="I22" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="J22" s="73"/>
-      <c r="K22" s="73"/>
-      <c r="L22" s="73"/>
+      <c r="J22" s="81"/>
+      <c r="K22" s="81"/>
+      <c r="L22" s="81"/>
       <c r="M22" s="42"/>
-      <c r="N22" s="42"/>
-      <c r="O22" s="42"/>
-      <c r="P22" s="42"/>
-      <c r="Q22" s="42"/>
-      <c r="R22" s="42"/>
-      <c r="S22" s="42"/>
-      <c r="T22" s="42"/>
+      <c r="O22" s="72"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="2"/>
       <c r="U22" s="42"/>
       <c r="V22" s="42"/>
       <c r="W22" s="42"/>
       <c r="X22" s="42"/>
-      <c r="Y22" s="42"/>
-      <c r="Z22" s="42"/>
-      <c r="AB22" s="61"/>
-      <c r="AC22" s="2"/>
+      <c r="Z22" s="72"/>
+      <c r="AA22" s="2"/>
+      <c r="AB22" s="1"/>
+      <c r="AC22" s="3"/>
       <c r="AD22" s="1"/>
-      <c r="AE22" s="3"/>
-      <c r="AF22" s="1"/>
-      <c r="AG22" s="2"/>
-      <c r="AH22" s="42"/>
-      <c r="AI22" s="42"/>
-      <c r="AJ22" s="42"/>
-      <c r="AK22" s="42"/>
-      <c r="AM22" s="61"/>
-      <c r="AN22" s="2"/>
+      <c r="AE22" s="2"/>
+      <c r="AK22" s="72"/>
+      <c r="AL22" s="2"/>
+      <c r="AM22" s="1"/>
+      <c r="AN22" s="3"/>
       <c r="AO22" s="1"/>
-      <c r="AP22" s="3"/>
-      <c r="AQ22" s="1"/>
-      <c r="AR22" s="2"/>
-      <c r="AX22" s="61"/>
-      <c r="AY22" s="2"/>
-      <c r="AZ22" s="1"/>
-      <c r="BA22" s="3"/>
-      <c r="BB22" s="1"/>
-      <c r="BC22" s="2"/>
+      <c r="AP22" s="2"/>
     </row>
-    <row r="23" spans="2:59" x14ac:dyDescent="0.35">
-      <c r="B23" s="59" t="s">
+    <row r="23" spans="2:46" x14ac:dyDescent="0.35">
+      <c r="B23" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="I23" s="73" t="s">
+      <c r="I23" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="J23" s="73"/>
-      <c r="K23" s="73"/>
-      <c r="L23" s="73"/>
-      <c r="AB23" s="59" t="s">
+      <c r="J23" s="81"/>
+      <c r="K23" s="81"/>
+      <c r="L23" s="81"/>
+      <c r="O23" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="AD23"/>
-      <c r="AE23"/>
-      <c r="AF23"/>
-      <c r="AM23" s="59" t="s">
+      <c r="Q23"/>
+      <c r="R23"/>
+      <c r="S23"/>
+      <c r="Z23" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="AX23" s="59" t="s">
+      <c r="AK23" s="70" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="2:59" x14ac:dyDescent="0.35">
-      <c r="B24" s="60"/>
-      <c r="I24" s="68"/>
-      <c r="AB24" s="60"/>
-      <c r="AD24"/>
-      <c r="AE24"/>
-      <c r="AF24" s="38"/>
-      <c r="AM24" s="60"/>
-      <c r="AX24" s="60"/>
+    <row r="24" spans="2:46" x14ac:dyDescent="0.35">
+      <c r="B24" s="71"/>
+      <c r="I24" s="52"/>
+      <c r="O24" s="71"/>
+      <c r="Q24"/>
+      <c r="R24"/>
+      <c r="S24" s="38"/>
+      <c r="Z24" s="71"/>
+      <c r="AK24" s="71"/>
     </row>
-    <row r="25" spans="2:59" x14ac:dyDescent="0.35">
-      <c r="B25" s="61"/>
+    <row r="25" spans="2:46" x14ac:dyDescent="0.35">
+      <c r="B25" s="72"/>
       <c r="C25" s="2"/>
       <c r="D25" s="1"/>
       <c r="E25" s="3"/>
@@ -10864,434 +15869,358 @@
         <v>3</v>
       </c>
       <c r="H25" s="42"/>
-      <c r="I25" s="73" t="s">
+      <c r="I25" s="81" t="s">
         <v>48</v>
       </c>
-      <c r="J25" s="73"/>
-      <c r="K25" s="73"/>
-      <c r="L25" s="73"/>
+      <c r="J25" s="81"/>
+      <c r="K25" s="81"/>
+      <c r="L25" s="81"/>
       <c r="M25" s="42"/>
-      <c r="N25" s="42"/>
-      <c r="O25" s="42"/>
-      <c r="P25" s="42"/>
-      <c r="Q25" s="42"/>
-      <c r="R25" s="42"/>
-      <c r="S25" s="42"/>
-      <c r="T25" s="42"/>
-      <c r="U25" s="42"/>
-      <c r="V25" s="42"/>
-      <c r="W25" s="42"/>
-      <c r="X25" s="42"/>
-      <c r="Y25" s="42"/>
-      <c r="Z25" s="42"/>
-      <c r="AB25" s="61"/>
-      <c r="AC25" s="2"/>
+      <c r="O25" s="72"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="2"/>
+      <c r="Z25" s="72"/>
+      <c r="AA25" s="2"/>
+      <c r="AB25" s="1"/>
+      <c r="AC25" s="3"/>
       <c r="AD25" s="1"/>
-      <c r="AE25" s="3"/>
-      <c r="AF25" s="5"/>
-      <c r="AG25" s="2"/>
-      <c r="AM25" s="61"/>
-      <c r="AN25" s="2"/>
+      <c r="AE25" s="2"/>
+      <c r="AK25" s="72"/>
+      <c r="AL25" s="2"/>
+      <c r="AM25" s="1"/>
+      <c r="AN25" s="3"/>
       <c r="AO25" s="1"/>
-      <c r="AP25" s="3"/>
-      <c r="AQ25" s="1"/>
-      <c r="AR25" s="2"/>
-      <c r="AX25" s="61"/>
-      <c r="AY25" s="2"/>
-      <c r="AZ25" s="1"/>
-      <c r="BA25" s="3"/>
-      <c r="BB25" s="1"/>
-      <c r="BC25" s="2"/>
-      <c r="BD25" s="41">
+      <c r="AP25" s="2"/>
+      <c r="AQ25" s="41">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="2:59" x14ac:dyDescent="0.35">
-      <c r="B26" s="59" t="s">
+    <row r="26" spans="2:46" x14ac:dyDescent="0.35">
+      <c r="B26" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="I26" s="73" t="s">
+      <c r="I26" s="81" t="s">
         <v>49</v>
       </c>
-      <c r="J26" s="73"/>
-      <c r="K26" s="73"/>
-      <c r="L26" s="73"/>
-      <c r="AB26" s="59" t="s">
+      <c r="J26" s="81"/>
+      <c r="K26" s="81"/>
+      <c r="L26" s="81"/>
+      <c r="O26" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="AD26"/>
-      <c r="AE26"/>
-      <c r="AF26"/>
-      <c r="AI26" s="49" t="s">
+      <c r="Q26"/>
+      <c r="R26"/>
+      <c r="S26"/>
+      <c r="V26" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="AJ26" s="50"/>
-      <c r="AK26" s="51"/>
-      <c r="AM26" s="59" t="s">
+      <c r="W26" s="79"/>
+      <c r="X26" s="80"/>
+      <c r="Z26" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="AT26" s="54" t="s">
+      <c r="AG26" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="AU26" s="55"/>
-      <c r="AV26" s="56"/>
-      <c r="AX26" s="59" t="s">
+      <c r="AH26" s="74"/>
+      <c r="AI26" s="75"/>
+      <c r="AK26" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="BE26" s="54" t="s">
+      <c r="AR26" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="BF26" s="55"/>
-      <c r="BG26" s="56"/>
+      <c r="AS26" s="74"/>
+      <c r="AT26" s="75"/>
     </row>
-    <row r="27" spans="2:59" x14ac:dyDescent="0.35">
-      <c r="B27" s="60"/>
+    <row r="27" spans="2:46" x14ac:dyDescent="0.35">
+      <c r="B27" s="71"/>
       <c r="D27" s="38"/>
-      <c r="I27" s="73" t="s">
+      <c r="I27" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="J27" s="73"/>
-      <c r="K27" s="73"/>
-      <c r="L27" s="73"/>
-      <c r="AB27" s="60"/>
-      <c r="AD27"/>
-      <c r="AE27"/>
-      <c r="AF27"/>
-      <c r="AI27" s="5"/>
-      <c r="AJ27" s="52" t="s">
+      <c r="J27" s="81"/>
+      <c r="K27" s="81"/>
+      <c r="L27" s="81"/>
+      <c r="O27" s="71"/>
+      <c r="Q27"/>
+      <c r="R27"/>
+      <c r="S27"/>
+      <c r="V27" s="5"/>
+      <c r="W27" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="AK27" s="53"/>
-      <c r="AM27" s="60"/>
-      <c r="AT27" s="5"/>
-      <c r="AU27" s="52" t="s">
+      <c r="X27" s="77"/>
+      <c r="Z27" s="71"/>
+      <c r="AG27" s="5"/>
+      <c r="AH27" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="AV27" s="53"/>
-      <c r="AX27" s="60"/>
-      <c r="BE27" s="5"/>
-      <c r="BF27" s="52" t="s">
+      <c r="AI27" s="77"/>
+      <c r="AK27" s="71"/>
+      <c r="AR27" s="5"/>
+      <c r="AS27" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="BG27" s="53"/>
+      <c r="AT27" s="77"/>
     </row>
-    <row r="28" spans="2:59" x14ac:dyDescent="0.35">
-      <c r="B28" s="61"/>
+    <row r="28" spans="2:46" x14ac:dyDescent="0.35">
+      <c r="B28" s="72"/>
       <c r="C28" s="2"/>
       <c r="D28" s="5"/>
       <c r="E28" s="3"/>
       <c r="F28" s="1"/>
       <c r="G28" s="2"/>
       <c r="H28" s="42"/>
-      <c r="I28" s="68"/>
+      <c r="I28" s="52"/>
       <c r="L28" s="42"/>
       <c r="M28" s="42"/>
-      <c r="N28" s="42"/>
-      <c r="O28" s="42"/>
-      <c r="P28" s="42"/>
-      <c r="Q28" s="42"/>
-      <c r="R28" s="42"/>
-      <c r="S28" s="42"/>
-      <c r="T28" s="42"/>
+      <c r="O28" s="72"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="2"/>
       <c r="U28" s="42"/>
-      <c r="V28" s="42"/>
-      <c r="W28" s="42"/>
-      <c r="X28" s="42"/>
-      <c r="Y28" s="42"/>
-      <c r="Z28" s="42"/>
-      <c r="AB28" s="61"/>
-      <c r="AC28" s="2"/>
+      <c r="V28" s="5"/>
+      <c r="W28" s="76" t="s">
+        <v>33</v>
+      </c>
+      <c r="X28" s="77"/>
+      <c r="Z28" s="72"/>
+      <c r="AA28" s="2"/>
+      <c r="AB28" s="1"/>
+      <c r="AC28" s="3"/>
       <c r="AD28" s="1"/>
-      <c r="AE28" s="3"/>
-      <c r="AF28" s="1"/>
-      <c r="AG28" s="2"/>
-      <c r="AH28" s="42"/>
-      <c r="AI28" s="5"/>
-      <c r="AJ28" s="52" t="s">
-        <v>33</v>
-      </c>
-      <c r="AK28" s="53"/>
-      <c r="AM28" s="61"/>
-      <c r="AN28" s="2"/>
+      <c r="AE28" s="2"/>
+      <c r="AG28" s="5"/>
+      <c r="AH28" s="76" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI28" s="77"/>
+      <c r="AK28" s="72"/>
+      <c r="AL28" s="2"/>
+      <c r="AM28" s="1"/>
+      <c r="AN28" s="3"/>
       <c r="AO28" s="1"/>
-      <c r="AP28" s="3"/>
-      <c r="AQ28" s="1"/>
-      <c r="AR28" s="2"/>
-      <c r="AT28" s="5"/>
-      <c r="AU28" s="52" t="s">
+      <c r="AP28" s="2"/>
+      <c r="AR28" s="40"/>
+      <c r="AS28" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="AV28" s="53"/>
-      <c r="AX28" s="61"/>
-      <c r="AY28" s="2"/>
-      <c r="AZ28" s="1"/>
-      <c r="BA28" s="3"/>
-      <c r="BB28" s="1"/>
-      <c r="BC28" s="2"/>
-      <c r="BE28" s="40"/>
-      <c r="BF28" s="52" t="s">
-        <v>29</v>
-      </c>
-      <c r="BG28" s="53"/>
+      <c r="AT28" s="77"/>
     </row>
-    <row r="29" spans="2:59" x14ac:dyDescent="0.35">
-      <c r="B29" s="59" t="s">
+    <row r="29" spans="2:46" x14ac:dyDescent="0.35">
+      <c r="B29" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="I29" s="72" t="s">
+      <c r="I29" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="J29" s="72"/>
-      <c r="K29" s="72"/>
-      <c r="L29" s="72"/>
-      <c r="AB29" s="59" t="s">
+      <c r="J29" s="69"/>
+      <c r="K29" s="69"/>
+      <c r="L29" s="69"/>
+      <c r="O29" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="AD29"/>
-      <c r="AE29"/>
-      <c r="AF29"/>
-      <c r="AI29" s="43"/>
-      <c r="AJ29" s="42" t="s">
+      <c r="Q29"/>
+      <c r="R29"/>
+      <c r="S29"/>
+      <c r="V29" s="43"/>
+      <c r="W29" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="AK29" s="47"/>
-      <c r="AM29" s="59" t="s">
+      <c r="X29" s="47"/>
+      <c r="Z29" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="AR29">
+      <c r="AE29">
         <v>1</v>
       </c>
-      <c r="AT29" s="43"/>
-      <c r="AU29" s="42" t="s">
+      <c r="AG29" s="43"/>
+      <c r="AH29" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="AV29" s="44"/>
-      <c r="AX29" s="59" t="s">
+      <c r="AI29" s="44"/>
+      <c r="AK29" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="BE29" s="43"/>
-      <c r="BF29" s="42" t="s">
+      <c r="AR29" s="43"/>
+      <c r="AS29" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="BG29" s="44"/>
+      <c r="AT29" s="44"/>
     </row>
-    <row r="30" spans="2:59" x14ac:dyDescent="0.35">
-      <c r="B30" s="60"/>
-      <c r="I30" s="57" t="s">
+    <row r="30" spans="2:46" x14ac:dyDescent="0.35">
+      <c r="B30" s="71"/>
+      <c r="I30" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="J30" s="57"/>
-      <c r="K30" s="57"/>
-      <c r="L30" s="57"/>
-      <c r="AB30" s="60"/>
-      <c r="AD30"/>
-      <c r="AE30"/>
-      <c r="AF30"/>
-      <c r="AI30" s="45"/>
-      <c r="AJ30" s="3" t="s">
+      <c r="J30" s="65"/>
+      <c r="K30" s="65"/>
+      <c r="L30" s="65"/>
+      <c r="O30" s="71"/>
+      <c r="Q30"/>
+      <c r="R30"/>
+      <c r="S30"/>
+      <c r="V30" s="45"/>
+      <c r="W30" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AK30" s="48"/>
-      <c r="AM30" s="60"/>
-      <c r="AT30" s="45"/>
-      <c r="AU30" s="3" t="s">
+      <c r="X30" s="48"/>
+      <c r="Z30" s="71"/>
+      <c r="AG30" s="45"/>
+      <c r="AH30" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AV30" s="46"/>
-      <c r="AX30" s="60"/>
-      <c r="BE30" s="45"/>
-      <c r="BF30" s="3" t="s">
+      <c r="AI30" s="46"/>
+      <c r="AK30" s="71"/>
+      <c r="AR30" s="45"/>
+      <c r="AS30" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="BG30" s="46"/>
+      <c r="AT30" s="46"/>
     </row>
-    <row r="31" spans="2:59" x14ac:dyDescent="0.35">
-      <c r="B31" s="61"/>
+    <row r="31" spans="2:46" x14ac:dyDescent="0.35">
+      <c r="B31" s="72"/>
       <c r="C31" s="2"/>
       <c r="D31" s="1"/>
       <c r="E31" s="3"/>
       <c r="F31" s="1"/>
       <c r="G31" s="2"/>
       <c r="H31" s="42"/>
-      <c r="I31" s="57" t="s">
+      <c r="I31" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="J31" s="57"/>
-      <c r="K31" s="57"/>
-      <c r="L31" s="57"/>
+      <c r="J31" s="65"/>
+      <c r="K31" s="65"/>
+      <c r="L31" s="65"/>
       <c r="M31" s="42"/>
-      <c r="N31" s="42"/>
-      <c r="O31" s="42"/>
-      <c r="P31" s="42"/>
-      <c r="Q31" s="42"/>
-      <c r="R31" s="42"/>
-      <c r="S31" s="42"/>
-      <c r="T31" s="42"/>
+      <c r="O31" s="72"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="2"/>
       <c r="U31" s="42"/>
       <c r="V31" s="42"/>
       <c r="W31" s="42"/>
       <c r="X31" s="42"/>
-      <c r="Y31" s="42"/>
-      <c r="Z31" s="42"/>
-      <c r="AB31" s="61"/>
-      <c r="AC31" s="2"/>
+      <c r="Z31" s="72"/>
+      <c r="AA31" s="2"/>
+      <c r="AB31" s="1"/>
+      <c r="AC31" s="3"/>
       <c r="AD31" s="1"/>
-      <c r="AE31" s="3"/>
-      <c r="AF31" s="1"/>
-      <c r="AG31" s="2"/>
-      <c r="AH31" s="42"/>
-      <c r="AI31" s="42"/>
-      <c r="AJ31" s="42"/>
-      <c r="AK31" s="42"/>
-      <c r="AM31" s="61"/>
-      <c r="AN31" s="2"/>
+      <c r="AE31" s="2"/>
+      <c r="AK31" s="72"/>
+      <c r="AL31" s="2"/>
+      <c r="AM31" s="1"/>
+      <c r="AN31" s="3"/>
       <c r="AO31" s="1"/>
-      <c r="AP31" s="3"/>
-      <c r="AQ31" s="1"/>
-      <c r="AR31" s="2"/>
-      <c r="AX31" s="61"/>
-      <c r="AY31" s="2"/>
-      <c r="AZ31" s="1"/>
-      <c r="BA31" s="3"/>
-      <c r="BB31" s="1"/>
-      <c r="BC31" s="2"/>
+      <c r="AP31" s="2"/>
     </row>
-    <row r="32" spans="2:59" x14ac:dyDescent="0.35">
-      <c r="C32" s="58" t="s">
+    <row r="32" spans="2:46" x14ac:dyDescent="0.35">
+      <c r="C32" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="D32" s="58"/>
-      <c r="F32" s="57" t="s">
+      <c r="D32" s="66"/>
+      <c r="F32" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="G32" s="57"/>
+      <c r="G32" s="65"/>
       <c r="H32" s="41"/>
-      <c r="I32" s="72" t="s">
+      <c r="I32" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="J32" s="72"/>
-      <c r="K32" s="72"/>
-      <c r="L32" s="72"/>
+      <c r="J32" s="69"/>
+      <c r="K32" s="69"/>
+      <c r="L32" s="69"/>
       <c r="M32" s="41"/>
-      <c r="N32" s="41"/>
-      <c r="O32" s="41"/>
-      <c r="P32" s="41"/>
-      <c r="Q32" s="41"/>
-      <c r="R32" s="41"/>
-      <c r="S32" s="41"/>
-      <c r="T32" s="41"/>
+      <c r="P32" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q32" s="66"/>
+      <c r="R32"/>
+      <c r="S32" s="65" t="s">
+        <v>11</v>
+      </c>
+      <c r="T32" s="65"/>
       <c r="U32" s="41"/>
       <c r="V32" s="41"/>
       <c r="W32" s="41"/>
       <c r="X32" s="41"/>
-      <c r="Y32" s="41"/>
-      <c r="Z32" s="41"/>
-      <c r="AC32" s="58" t="s">
+      <c r="AA32" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="AD32" s="58"/>
-      <c r="AE32"/>
-      <c r="AF32" s="57" t="s">
+      <c r="AB32" s="66"/>
+      <c r="AD32" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="AG32" s="57"/>
-      <c r="AH32" s="41"/>
-      <c r="AI32" s="41"/>
-      <c r="AJ32" s="41"/>
-      <c r="AK32" s="41"/>
-      <c r="AN32" s="58" t="s">
+      <c r="AE32" s="65"/>
+      <c r="AL32" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="AO32" s="58"/>
-      <c r="AQ32" s="57" t="s">
+      <c r="AM32" s="66"/>
+      <c r="AO32" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="AR32" s="57"/>
-      <c r="AY32" s="58" t="s">
-        <v>10</v>
-      </c>
-      <c r="AZ32" s="58"/>
-      <c r="BB32" s="57" t="s">
-        <v>11</v>
-      </c>
-      <c r="BC32" s="57"/>
+      <c r="AP32" s="65"/>
     </row>
-    <row r="33" spans="8:51" x14ac:dyDescent="0.35">
-      <c r="AC33" s="4"/>
-      <c r="AD33"/>
-      <c r="AE33"/>
-      <c r="AF33"/>
-      <c r="AN33" s="4"/>
-      <c r="AY33" s="4"/>
+    <row r="33" spans="2:38" x14ac:dyDescent="0.35">
+      <c r="P33" s="4"/>
+      <c r="Q33"/>
+      <c r="R33"/>
+      <c r="S33"/>
+      <c r="AA33" s="4"/>
+      <c r="AL33" s="4"/>
     </row>
-    <row r="34" spans="8:51" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:38" x14ac:dyDescent="0.35">
       <c r="H34" s="16"/>
       <c r="K34" s="16"/>
       <c r="L34" s="16"/>
       <c r="M34" s="16"/>
-      <c r="N34" s="16"/>
-      <c r="O34" s="16"/>
-      <c r="P34" s="16"/>
-      <c r="Q34" s="16"/>
-      <c r="R34" s="16"/>
-      <c r="S34" s="16"/>
-      <c r="T34" s="16"/>
-      <c r="U34" s="16"/>
       <c r="V34" s="16"/>
       <c r="W34" s="16"/>
       <c r="X34" s="16"/>
-      <c r="Y34" s="16"/>
-      <c r="Z34" s="16"/>
-      <c r="AI34" s="16"/>
-      <c r="AJ34" s="16"/>
-      <c r="AK34" s="16"/>
     </row>
-    <row r="35" spans="8:51" x14ac:dyDescent="0.35">
-      <c r="H35" s="41"/>
-      <c r="J35" s="41"/>
+    <row r="35" spans="2:38" x14ac:dyDescent="0.35">
+      <c r="B35" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" s="54"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="54"/>
+      <c r="F35" s="54"/>
+      <c r="G35" s="54"/>
+      <c r="H35" s="54"/>
+      <c r="I35" s="55"/>
       <c r="K35" s="41"/>
       <c r="L35" s="41"/>
       <c r="M35" s="41"/>
-      <c r="N35" s="41"/>
-      <c r="O35" s="41"/>
-      <c r="P35" s="41"/>
-      <c r="Q35" s="41"/>
-      <c r="R35" s="41"/>
-      <c r="S35" s="41"/>
-      <c r="T35" s="41"/>
-      <c r="U35" s="41"/>
       <c r="V35" s="41"/>
       <c r="W35" s="41"/>
       <c r="X35" s="41"/>
-      <c r="Y35" s="41"/>
-      <c r="Z35" s="41"/>
-      <c r="AI35" s="41"/>
-      <c r="AJ35" s="41"/>
-      <c r="AK35" s="41"/>
     </row>
-    <row r="36" spans="8:51" x14ac:dyDescent="0.35">
-      <c r="H36" s="41"/>
-      <c r="I36" s="41"/>
-      <c r="J36" s="41"/>
+    <row r="36" spans="2:38" x14ac:dyDescent="0.35">
+      <c r="B36" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="46"/>
       <c r="K36" s="41"/>
       <c r="L36" s="41"/>
       <c r="M36" s="41"/>
-      <c r="N36" s="41"/>
-      <c r="O36" s="41"/>
-      <c r="P36" s="41"/>
-      <c r="Q36" s="41"/>
-      <c r="R36" s="41"/>
-      <c r="S36" s="41"/>
-      <c r="T36" s="41"/>
-      <c r="U36" s="41"/>
       <c r="V36" s="41"/>
       <c r="W36" s="41"/>
       <c r="X36" s="41"/>
-      <c r="Y36" s="41"/>
-      <c r="Z36" s="41"/>
-      <c r="AI36" s="41"/>
-      <c r="AJ36" s="41"/>
-      <c r="AK36" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="80">
@@ -11305,60 +16234,61 @@
     <mergeCell ref="I23:L23"/>
     <mergeCell ref="I25:L25"/>
     <mergeCell ref="I26:L26"/>
-    <mergeCell ref="AN32:AO32"/>
-    <mergeCell ref="AQ32:AR32"/>
-    <mergeCell ref="AY32:AZ32"/>
-    <mergeCell ref="BB32:BC32"/>
-    <mergeCell ref="AX17:AX19"/>
-    <mergeCell ref="AX20:AX22"/>
-    <mergeCell ref="AX23:AX25"/>
-    <mergeCell ref="AX26:AX28"/>
-    <mergeCell ref="AX29:AX31"/>
-    <mergeCell ref="AM17:AM19"/>
-    <mergeCell ref="AM20:AM22"/>
-    <mergeCell ref="AM23:AM25"/>
-    <mergeCell ref="AM26:AM28"/>
-    <mergeCell ref="AM29:AM31"/>
-    <mergeCell ref="AX2:AX4"/>
-    <mergeCell ref="AX5:AX7"/>
-    <mergeCell ref="AX8:AX10"/>
-    <mergeCell ref="AX11:AX13"/>
-    <mergeCell ref="AX14:AX16"/>
-    <mergeCell ref="AB20:AB22"/>
-    <mergeCell ref="AB23:AB25"/>
-    <mergeCell ref="AB26:AB28"/>
-    <mergeCell ref="AB29:AB31"/>
-    <mergeCell ref="AF32:AG32"/>
-    <mergeCell ref="AB8:AB10"/>
-    <mergeCell ref="AB11:AB13"/>
-    <mergeCell ref="AB14:AB16"/>
-    <mergeCell ref="AM2:AM4"/>
-    <mergeCell ref="AM5:AM7"/>
-    <mergeCell ref="AM8:AM10"/>
-    <mergeCell ref="AM11:AM13"/>
-    <mergeCell ref="AM14:AM16"/>
+    <mergeCell ref="AL32:AM32"/>
+    <mergeCell ref="AO32:AP32"/>
+    <mergeCell ref="AK17:AK19"/>
+    <mergeCell ref="AK20:AK22"/>
+    <mergeCell ref="AK23:AK25"/>
+    <mergeCell ref="AK26:AK28"/>
+    <mergeCell ref="AK29:AK31"/>
+    <mergeCell ref="O26:O28"/>
+    <mergeCell ref="O29:O31"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="AK2:AK4"/>
+    <mergeCell ref="AK5:AK7"/>
+    <mergeCell ref="AK8:AK10"/>
+    <mergeCell ref="AK11:AK13"/>
+    <mergeCell ref="AK14:AK16"/>
+    <mergeCell ref="Z17:Z19"/>
+    <mergeCell ref="Z20:Z22"/>
+    <mergeCell ref="Z23:Z25"/>
+    <mergeCell ref="Z26:Z28"/>
+    <mergeCell ref="Z29:Z31"/>
+    <mergeCell ref="AA32:AB32"/>
+    <mergeCell ref="AD32:AE32"/>
     <mergeCell ref="F32:G32"/>
     <mergeCell ref="C32:D32"/>
-    <mergeCell ref="AC32:AD32"/>
+    <mergeCell ref="P32:Q32"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="B17:B19"/>
-    <mergeCell ref="AB17:AB19"/>
+    <mergeCell ref="O17:O19"/>
     <mergeCell ref="B20:B22"/>
     <mergeCell ref="B23:B25"/>
     <mergeCell ref="B26:B28"/>
     <mergeCell ref="B29:B31"/>
-    <mergeCell ref="AB2:AB4"/>
-    <mergeCell ref="AB5:AB7"/>
+    <mergeCell ref="O2:O4"/>
+    <mergeCell ref="O5:O7"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="J5:K5"/>
-    <mergeCell ref="BE26:BG26"/>
-    <mergeCell ref="BF27:BG27"/>
-    <mergeCell ref="BF28:BG28"/>
+    <mergeCell ref="AR26:AT26"/>
+    <mergeCell ref="AS27:AT27"/>
+    <mergeCell ref="AG26:AI26"/>
+    <mergeCell ref="O8:O10"/>
+    <mergeCell ref="O11:O13"/>
+    <mergeCell ref="O14:O16"/>
+    <mergeCell ref="Z2:Z4"/>
+    <mergeCell ref="Z5:Z7"/>
+    <mergeCell ref="Z8:Z10"/>
+    <mergeCell ref="Z11:Z13"/>
+    <mergeCell ref="Z14:Z16"/>
+    <mergeCell ref="O20:O22"/>
+    <mergeCell ref="O23:O25"/>
+    <mergeCell ref="AS28:AT28"/>
     <mergeCell ref="I9:L9"/>
     <mergeCell ref="I10:L10"/>
     <mergeCell ref="I12:L12"/>
@@ -11369,12 +16299,11 @@
     <mergeCell ref="I18:L18"/>
     <mergeCell ref="I19:L19"/>
     <mergeCell ref="I20:L20"/>
-    <mergeCell ref="AI26:AK26"/>
-    <mergeCell ref="AJ27:AK27"/>
-    <mergeCell ref="AJ28:AK28"/>
-    <mergeCell ref="AU27:AV27"/>
-    <mergeCell ref="AU28:AV28"/>
-    <mergeCell ref="AT26:AV26"/>
+    <mergeCell ref="V26:X26"/>
+    <mergeCell ref="W27:X27"/>
+    <mergeCell ref="W28:X28"/>
+    <mergeCell ref="AH27:AI27"/>
+    <mergeCell ref="AH28:AI28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11382,7 +16311,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2B24B57-B6C7-48AD-91A3-9BBE803F2533}">
   <dimension ref="A1:F26"/>
   <sheetViews>
@@ -11399,36 +16328,36 @@
       <c r="F1" s="17"/>
     </row>
     <row r="2" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="85" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="66" t="s">
+      <c r="D2" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="66" t="s">
+      <c r="E2" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="66" t="s">
+      <c r="F2" s="85" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
     </row>
     <row r="4" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
     </row>
     <row r="5" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C5" s="66"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="67"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="86"/>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C6" s="30"/>
@@ -11556,11 +16485,11 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C21" s="24"/>
-      <c r="D21" s="63" t="s">
+      <c r="D21" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="64"/>
-      <c r="F21" s="65"/>
+      <c r="E21" s="83"/>
+      <c r="F21" s="84"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C22" s="24">
@@ -11622,7 +16551,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39C8ADD6-FDAF-43D1-8D75-9C37E5E1EDA3}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -11634,7 +16563,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D177F326-3E52-4610-A5D0-49AFD1295841}">
   <dimension ref="G1:G18"/>
   <sheetViews>
@@ -11716,7 +16645,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8A6CD2C-5C6D-43AA-9F42-6671E5ABCDE4}">
   <dimension ref="B2:AP35"/>
   <sheetViews>
@@ -11746,7 +16675,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:42" x14ac:dyDescent="0.35">
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="70" t="s">
         <v>0</v>
       </c>
       <c r="I2" s="6" t="s">
@@ -11766,7 +16695,7 @@
       </c>
     </row>
     <row r="3" spans="2:42" x14ac:dyDescent="0.35">
-      <c r="B3" s="60"/>
+      <c r="B3" s="71"/>
       <c r="I3" s="7"/>
       <c r="P3" s="7"/>
       <c r="W3" s="7"/>
@@ -11774,7 +16703,7 @@
       <c r="AK3" s="7"/>
     </row>
     <row r="4" spans="2:42" x14ac:dyDescent="0.35">
-      <c r="B4" s="61"/>
+      <c r="B4" s="72"/>
       <c r="C4" s="2"/>
       <c r="D4" s="1"/>
       <c r="E4" s="3"/>
@@ -11812,7 +16741,7 @@
       <c r="AP4" s="2"/>
     </row>
     <row r="5" spans="2:42" x14ac:dyDescent="0.35">
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="70" t="s">
         <v>1</v>
       </c>
       <c r="I5" s="6" t="s">
@@ -11832,7 +16761,7 @@
       </c>
     </row>
     <row r="6" spans="2:42" x14ac:dyDescent="0.35">
-      <c r="B6" s="60"/>
+      <c r="B6" s="71"/>
       <c r="I6" s="7"/>
       <c r="P6" s="7"/>
       <c r="W6" s="7"/>
@@ -11840,7 +16769,7 @@
       <c r="AK6" s="7"/>
     </row>
     <row r="7" spans="2:42" x14ac:dyDescent="0.35">
-      <c r="B7" s="61"/>
+      <c r="B7" s="72"/>
       <c r="C7" s="2"/>
       <c r="D7" s="1"/>
       <c r="E7" s="3"/>
@@ -11880,7 +16809,7 @@
       <c r="AP7" s="2"/>
     </row>
     <row r="8" spans="2:42" x14ac:dyDescent="0.35">
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="70" t="s">
         <v>2</v>
       </c>
       <c r="I8" s="6" t="s">
@@ -11900,7 +16829,7 @@
       </c>
     </row>
     <row r="9" spans="2:42" x14ac:dyDescent="0.35">
-      <c r="B9" s="60"/>
+      <c r="B9" s="71"/>
       <c r="I9" s="7"/>
       <c r="P9" s="7"/>
       <c r="W9" s="7"/>
@@ -11908,7 +16837,7 @@
       <c r="AK9" s="7"/>
     </row>
     <row r="10" spans="2:42" x14ac:dyDescent="0.35">
-      <c r="B10" s="61"/>
+      <c r="B10" s="72"/>
       <c r="C10" s="2"/>
       <c r="D10" s="1"/>
       <c r="E10" s="3"/>
@@ -11946,7 +16875,7 @@
       <c r="AP10" s="2"/>
     </row>
     <row r="11" spans="2:42" x14ac:dyDescent="0.35">
-      <c r="B11" s="59" t="s">
+      <c r="B11" s="70" t="s">
         <v>3</v>
       </c>
       <c r="I11" s="6" t="s">
@@ -11966,7 +16895,7 @@
       </c>
     </row>
     <row r="12" spans="2:42" x14ac:dyDescent="0.35">
-      <c r="B12" s="60"/>
+      <c r="B12" s="71"/>
       <c r="I12" s="7"/>
       <c r="P12" s="7"/>
       <c r="W12" s="7"/>
@@ -11974,7 +16903,7 @@
       <c r="AK12" s="7"/>
     </row>
     <row r="13" spans="2:42" x14ac:dyDescent="0.35">
-      <c r="B13" s="61"/>
+      <c r="B13" s="72"/>
       <c r="C13" s="2"/>
       <c r="D13" s="1"/>
       <c r="E13" s="3"/>
@@ -12016,7 +16945,7 @@
       <c r="AP13" s="2"/>
     </row>
     <row r="14" spans="2:42" x14ac:dyDescent="0.35">
-      <c r="B14" s="59" t="s">
+      <c r="B14" s="70" t="s">
         <v>4</v>
       </c>
       <c r="I14" s="6" t="s">
@@ -12036,7 +16965,7 @@
       </c>
     </row>
     <row r="15" spans="2:42" x14ac:dyDescent="0.35">
-      <c r="B15" s="60"/>
+      <c r="B15" s="71"/>
       <c r="I15" s="7"/>
       <c r="P15" s="7"/>
       <c r="W15" s="7"/>
@@ -12044,7 +16973,7 @@
       <c r="AK15" s="7"/>
     </row>
     <row r="16" spans="2:42" x14ac:dyDescent="0.35">
-      <c r="B16" s="61"/>
+      <c r="B16" s="72"/>
       <c r="C16" s="2"/>
       <c r="D16" s="1"/>
       <c r="E16" s="3"/>
@@ -12086,7 +17015,7 @@
       <c r="AP16" s="2"/>
     </row>
     <row r="17" spans="2:42" x14ac:dyDescent="0.35">
-      <c r="B17" s="59" t="s">
+      <c r="B17" s="70" t="s">
         <v>5</v>
       </c>
       <c r="I17" s="6" t="s">
@@ -12106,7 +17035,7 @@
       </c>
     </row>
     <row r="18" spans="2:42" x14ac:dyDescent="0.35">
-      <c r="B18" s="60"/>
+      <c r="B18" s="71"/>
       <c r="I18" s="7"/>
       <c r="P18" s="7"/>
       <c r="W18" s="7"/>
@@ -12114,7 +17043,7 @@
       <c r="AK18" s="7"/>
     </row>
     <row r="19" spans="2:42" x14ac:dyDescent="0.35">
-      <c r="B19" s="61"/>
+      <c r="B19" s="72"/>
       <c r="C19" s="2"/>
       <c r="D19" s="1"/>
       <c r="E19" s="3"/>
@@ -12162,7 +17091,7 @@
       <c r="AP19" s="2"/>
     </row>
     <row r="20" spans="2:42" x14ac:dyDescent="0.35">
-      <c r="B20" s="59" t="s">
+      <c r="B20" s="70" t="s">
         <v>6</v>
       </c>
       <c r="I20" s="6" t="s">
@@ -12182,7 +17111,7 @@
       </c>
     </row>
     <row r="21" spans="2:42" x14ac:dyDescent="0.35">
-      <c r="B21" s="60"/>
+      <c r="B21" s="71"/>
       <c r="I21" s="7"/>
       <c r="P21" s="7"/>
       <c r="W21" s="7"/>
@@ -12190,7 +17119,7 @@
       <c r="AK21" s="7"/>
     </row>
     <row r="22" spans="2:42" x14ac:dyDescent="0.35">
-      <c r="B22" s="61"/>
+      <c r="B22" s="72"/>
       <c r="C22" s="2"/>
       <c r="D22" s="1"/>
       <c r="E22" s="3"/>
@@ -12228,7 +17157,7 @@
       <c r="AP22" s="2"/>
     </row>
     <row r="23" spans="2:42" x14ac:dyDescent="0.35">
-      <c r="B23" s="59" t="s">
+      <c r="B23" s="70" t="s">
         <v>7</v>
       </c>
       <c r="I23" s="6" t="s">
@@ -12248,7 +17177,7 @@
       </c>
     </row>
     <row r="24" spans="2:42" x14ac:dyDescent="0.35">
-      <c r="B24" s="60"/>
+      <c r="B24" s="71"/>
       <c r="I24" s="7"/>
       <c r="P24" s="7"/>
       <c r="W24" s="7"/>
@@ -12256,7 +17185,7 @@
       <c r="AK24" s="7"/>
     </row>
     <row r="25" spans="2:42" x14ac:dyDescent="0.35">
-      <c r="B25" s="61"/>
+      <c r="B25" s="72"/>
       <c r="C25" s="2"/>
       <c r="D25" s="1"/>
       <c r="E25" s="3"/>
@@ -12294,7 +17223,7 @@
       <c r="AP25" s="2"/>
     </row>
     <row r="26" spans="2:42" x14ac:dyDescent="0.35">
-      <c r="B26" s="59" t="s">
+      <c r="B26" s="70" t="s">
         <v>8</v>
       </c>
       <c r="I26" s="6" t="s">
@@ -12314,7 +17243,7 @@
       </c>
     </row>
     <row r="27" spans="2:42" x14ac:dyDescent="0.35">
-      <c r="B27" s="60"/>
+      <c r="B27" s="71"/>
       <c r="I27" s="7"/>
       <c r="P27" s="7"/>
       <c r="W27" s="7"/>
@@ -12322,7 +17251,7 @@
       <c r="AK27" s="7"/>
     </row>
     <row r="28" spans="2:42" x14ac:dyDescent="0.35">
-      <c r="B28" s="61"/>
+      <c r="B28" s="72"/>
       <c r="C28" s="2"/>
       <c r="D28" s="1"/>
       <c r="E28" s="3"/>
@@ -12360,7 +17289,7 @@
       <c r="AP28" s="2"/>
     </row>
     <row r="29" spans="2:42" x14ac:dyDescent="0.35">
-      <c r="B29" s="59" t="s">
+      <c r="B29" s="70" t="s">
         <v>9</v>
       </c>
       <c r="I29" s="6" t="s">
@@ -12380,7 +17309,7 @@
       </c>
     </row>
     <row r="30" spans="2:42" x14ac:dyDescent="0.35">
-      <c r="B30" s="60"/>
+      <c r="B30" s="71"/>
       <c r="I30" s="7"/>
       <c r="P30" s="7"/>
       <c r="W30" s="7"/>
@@ -12388,7 +17317,7 @@
       <c r="AK30" s="7"/>
     </row>
     <row r="31" spans="2:42" x14ac:dyDescent="0.35">
-      <c r="B31" s="61"/>
+      <c r="B31" s="72"/>
       <c r="C31" s="2"/>
       <c r="D31" s="5"/>
       <c r="E31" s="3"/>
@@ -12464,54 +17393,54 @@
       </c>
     </row>
     <row r="35" spans="2:42" x14ac:dyDescent="0.35">
-      <c r="B35" s="62" t="s">
+      <c r="B35" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="C35" s="62"/>
-      <c r="D35" s="62"/>
-      <c r="E35" s="62"/>
-      <c r="F35" s="62"/>
-      <c r="G35" s="62"/>
-      <c r="I35" s="62" t="s">
+      <c r="C35" s="87"/>
+      <c r="D35" s="87"/>
+      <c r="E35" s="87"/>
+      <c r="F35" s="87"/>
+      <c r="G35" s="87"/>
+      <c r="I35" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="J35" s="62"/>
-      <c r="K35" s="62"/>
-      <c r="L35" s="62"/>
-      <c r="M35" s="62"/>
-      <c r="N35" s="62"/>
-      <c r="P35" s="62" t="s">
+      <c r="J35" s="87"/>
+      <c r="K35" s="87"/>
+      <c r="L35" s="87"/>
+      <c r="M35" s="87"/>
+      <c r="N35" s="87"/>
+      <c r="P35" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="Q35" s="62"/>
-      <c r="R35" s="62"/>
-      <c r="S35" s="62"/>
-      <c r="T35" s="62"/>
-      <c r="U35" s="62"/>
-      <c r="W35" s="62" t="s">
+      <c r="Q35" s="87"/>
+      <c r="R35" s="87"/>
+      <c r="S35" s="87"/>
+      <c r="T35" s="87"/>
+      <c r="U35" s="87"/>
+      <c r="W35" s="87" t="s">
         <v>15</v>
       </c>
-      <c r="X35" s="62"/>
-      <c r="Y35" s="62"/>
-      <c r="Z35" s="62"/>
-      <c r="AA35" s="62"/>
-      <c r="AB35" s="62"/>
-      <c r="AD35" s="62" t="s">
+      <c r="X35" s="87"/>
+      <c r="Y35" s="87"/>
+      <c r="Z35" s="87"/>
+      <c r="AA35" s="87"/>
+      <c r="AB35" s="87"/>
+      <c r="AD35" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="AE35" s="62"/>
-      <c r="AF35" s="62"/>
-      <c r="AG35" s="62"/>
-      <c r="AH35" s="62"/>
-      <c r="AI35" s="62"/>
-      <c r="AK35" s="62" t="s">
+      <c r="AE35" s="87"/>
+      <c r="AF35" s="87"/>
+      <c r="AG35" s="87"/>
+      <c r="AH35" s="87"/>
+      <c r="AI35" s="87"/>
+      <c r="AK35" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="AL35" s="62"/>
-      <c r="AM35" s="62"/>
-      <c r="AN35" s="62"/>
-      <c r="AO35" s="62"/>
-      <c r="AP35" s="62"/>
+      <c r="AL35" s="87"/>
+      <c r="AM35" s="87"/>
+      <c r="AN35" s="87"/>
+      <c r="AO35" s="87"/>
+      <c r="AP35" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="16">
